--- a/Hacking timeline.xlsx
+++ b/Hacking timeline.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="768">
   <si>
     <t>Year</t>
   </si>
@@ -245,6 +245,9 @@
     <t>culture</t>
   </si>
   <si>
+    <t>#19a8af</t>
+  </si>
+  <si>
     <t>Mitnick Accesses DEC</t>
   </si>
   <si>
@@ -367,6 +370,9 @@
   </si>
   <si>
     <t>government</t>
+  </si>
+  <si>
+    <t>#f44336</t>
   </si>
   <si>
     <t>Trojan Horse described for the first time</t>
@@ -2709,6 +2715,9 @@
     <t>Dark Dante arrested</t>
   </si>
   <si>
+    <t>Kevin Poulsen is arrested after being on the run</t>
+  </si>
+  <si>
     <t>Creative Commons launched</t>
   </si>
   <si>
@@ -2986,6 +2995,9 @@
   </si>
   <si>
     <t>Chinese hacker arrested in Japan for virtual ‘theft’ of online game goods.</t>
+  </si>
+  <si>
+    <t>Samy Worm</t>
   </si>
   <si>
     <t>Samy (also known as JS.Spacehero) is a cross-site scripting worm (XSS worm) that was designed to propagate across the social networking site MySpace by Samy Kamkar. Within just 20 hours of its October 4, 2005 release, over one million users had run the payload making Samy the fastest-spreading virus of all time.</t>
@@ -3089,10 +3101,16 @@
     <t>The Evident Surprise series of exercises begins which includes Eligible Receiver-97.</t>
   </si>
   <si>
-    <t>Operation Cynersyn Begins</t>
-  </si>
-  <si>
-    <t>Operation Cybersyn begins in Chile.</t>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Cybersyn Project</t>
+  </si>
+  <si>
+    <t>Operation Cybersyn begins in Chile with the arrival of Stafford Beer in Santiago.</t>
   </si>
   <si>
     <t>Congressional Testimony On LANL hack</t>
@@ -3120,6 +3138,54 @@
   </si>
   <si>
     <t>The USSR collapses and is replaced by the Russian Federation</t>
+  </si>
+  <si>
+    <t>Allende government</t>
+  </si>
+  <si>
+    <t>Pinochet Takes Control in Chile</t>
+  </si>
+  <si>
+    <t>First Meeting of Southern Cone Nations</t>
+  </si>
+  <si>
+    <t>CCC Publishes Meeting Invite</t>
+  </si>
+  <si>
+    <t>The Chaos Computer Club publishes their first meeting invitation in TAZ.</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Chaos Digest Publishes</t>
+  </si>
+  <si>
+    <t>The Chaos Computer Club France begins publishing their newsletter in January, and stops publishing by August.</t>
+  </si>
+  <si>
+    <t>Kevin Mitnick Dies</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>US Presidential Election</t>
+  </si>
+  <si>
+    <t>Prestel Hack</t>
+  </si>
+  <si>
+    <t>Underground: Tales of Hacking</t>
+  </si>
+  <si>
+    <t>Sulette Dreyfus publishes her famous book on the 1980s and 1990s hacking scene.</t>
+  </si>
+  <si>
+    <t>COINS Program</t>
+  </si>
+  <si>
+    <t>US Intelligence Community begins COINS program</t>
   </si>
 </sst>
 </file>
@@ -3774,7 +3840,9 @@
       <c r="Q4" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="38"/>
+      <c r="R4" s="38" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="32">
@@ -3789,10 +3857,10 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
       <c r="J5" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" s="49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L5" s="50"/>
       <c r="M5" s="51"/>
@@ -3819,10 +3887,10 @@
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
       <c r="J6" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="44"/>
       <c r="M6" s="45"/>
@@ -3851,22 +3919,24 @@
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
       <c r="J7" s="32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M7" s="55"/>
       <c r="N7" s="55"/>
       <c r="O7" s="36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P7" s="37"/>
       <c r="Q7" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="38"/>
+      <c r="R7" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="32">
@@ -3881,24 +3951,24 @@
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8" s="56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" s="55"/>
       <c r="N8" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="36" t="s">
         <v>36</v>
-      </c>
-      <c r="O8" s="36" t="s">
-        <v>35</v>
       </c>
       <c r="P8" s="37"/>
       <c r="Q8" s="38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R8" s="38" t="s">
         <v>23</v>
@@ -3921,10 +3991,10 @@
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
       <c r="J9" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="57"/>
@@ -3932,7 +4002,7 @@
       <c r="O9" s="57"/>
       <c r="P9" s="57"/>
       <c r="Q9" s="58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R9" s="59"/>
     </row>
@@ -3944,17 +4014,17 @@
       <c r="C10" s="41"/>
       <c r="D10" s="43"/>
       <c r="E10" s="42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
       <c r="J10" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10" s="60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L10" s="39"/>
       <c r="M10" s="57"/>
@@ -3962,7 +4032,7 @@
       <c r="O10" s="57"/>
       <c r="P10" s="57"/>
       <c r="Q10" s="58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R10" s="38" t="s">
         <v>23</v>
@@ -3981,10 +4051,10 @@
       <c r="H11" s="30"/>
       <c r="I11" s="31"/>
       <c r="J11" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
@@ -3992,7 +4062,7 @@
       <c r="O11" s="62"/>
       <c r="P11" s="62"/>
       <c r="Q11" s="63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R11" s="64"/>
     </row>
@@ -4013,25 +4083,25 @@
       <c r="H12" s="43"/>
       <c r="I12" s="42"/>
       <c r="J12" s="39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12" s="39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L12" s="65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M12" s="66"/>
       <c r="N12" s="66"/>
       <c r="O12" s="60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P12" s="57"/>
       <c r="Q12" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="R12" s="38" t="s">
-        <v>23</v>
+      <c r="R12" s="48" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -4047,10 +4117,10 @@
       <c r="H13" s="30"/>
       <c r="I13" s="31"/>
       <c r="J13" s="32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13" s="49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
@@ -4058,9 +4128,11 @@
       <c r="O13" s="62"/>
       <c r="P13" s="62"/>
       <c r="Q13" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="R13" s="64"/>
+        <v>54</v>
+      </c>
+      <c r="R13" s="48" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="39">
@@ -4075,10 +4147,10 @@
       <c r="H14" s="43"/>
       <c r="I14" s="42"/>
       <c r="J14" s="39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L14" s="66"/>
       <c r="M14" s="66"/>
@@ -4086,7 +4158,7 @@
       <c r="O14" s="57"/>
       <c r="P14" s="57"/>
       <c r="Q14" s="58" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R14" s="38" t="s">
         <v>23</v>
@@ -4105,10 +4177,10 @@
       <c r="H15" s="70"/>
       <c r="I15" s="71"/>
       <c r="J15" s="67" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L15" s="72"/>
       <c r="M15" s="72"/>
@@ -4116,7 +4188,7 @@
       <c r="O15" s="73"/>
       <c r="P15" s="73"/>
       <c r="Q15" s="74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R15" s="75"/>
     </row>
@@ -4133,20 +4205,20 @@
       <c r="H16" s="43"/>
       <c r="I16" s="42"/>
       <c r="J16" s="39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K16" s="39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L16" s="60" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="57"/>
       <c r="P16" s="57"/>
       <c r="Q16" s="58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R16" s="38" t="s">
         <v>23</v>
@@ -4160,25 +4232,25 @@
       <c r="C17" s="69"/>
       <c r="D17" s="70"/>
       <c r="E17" s="71" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F17" s="71"/>
       <c r="G17" s="71"/>
       <c r="H17" s="70"/>
       <c r="I17" s="71"/>
       <c r="J17" s="67" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K17" s="67"/>
       <c r="L17" s="76" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M17" s="72"/>
       <c r="N17" s="72"/>
       <c r="O17" s="73"/>
       <c r="P17" s="73"/>
       <c r="Q17" s="74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R17" s="75"/>
     </row>
@@ -4195,18 +4267,18 @@
       <c r="H18" s="43"/>
       <c r="I18" s="42"/>
       <c r="J18" s="39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K18" s="39"/>
       <c r="L18" s="60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="57"/>
       <c r="P18" s="57"/>
       <c r="Q18" s="48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R18" s="38" t="s">
         <v>23</v>
@@ -4229,18 +4301,18 @@
       <c r="H19" s="70"/>
       <c r="I19" s="71"/>
       <c r="J19" s="67" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K19" s="72"/>
       <c r="L19" s="76" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M19" s="72"/>
       <c r="N19" s="72"/>
       <c r="O19" s="73"/>
       <c r="P19" s="73"/>
       <c r="Q19" s="48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R19" s="75"/>
     </row>
@@ -4257,10 +4329,10 @@
       <c r="H20" s="43"/>
       <c r="I20" s="42"/>
       <c r="J20" s="39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K20" s="49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L20" s="66"/>
       <c r="M20" s="66"/>
@@ -4268,7 +4340,7 @@
       <c r="O20" s="57"/>
       <c r="P20" s="57"/>
       <c r="Q20" s="77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R20" s="38" t="s">
         <v>23</v>
@@ -4291,7 +4363,7 @@
       <c r="H21" s="70"/>
       <c r="I21" s="71"/>
       <c r="J21" s="67" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K21" s="67"/>
       <c r="L21" s="72"/>
@@ -4300,7 +4372,7 @@
       <c r="O21" s="73"/>
       <c r="P21" s="73"/>
       <c r="Q21" s="48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R21" s="75"/>
     </row>
@@ -4317,10 +4389,10 @@
       <c r="H22" s="43"/>
       <c r="I22" s="42"/>
       <c r="J22" s="39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K22" s="39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L22" s="66"/>
       <c r="M22" s="66"/>
@@ -4328,7 +4400,7 @@
       <c r="O22" s="57"/>
       <c r="P22" s="57"/>
       <c r="Q22" s="77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R22" s="38" t="s">
         <v>23</v>
@@ -4351,10 +4423,10 @@
       <c r="H23" s="70"/>
       <c r="I23" s="71"/>
       <c r="J23" s="67" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L23" s="72"/>
       <c r="M23" s="72"/>
@@ -4362,7 +4434,7 @@
       <c r="O23" s="73"/>
       <c r="P23" s="73"/>
       <c r="Q23" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R23" s="75"/>
     </row>
@@ -4379,10 +4451,10 @@
       <c r="H24" s="43"/>
       <c r="I24" s="42"/>
       <c r="J24" s="39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K24" s="49" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L24" s="66"/>
       <c r="M24" s="66"/>
@@ -4390,7 +4462,7 @@
       <c r="O24" s="57"/>
       <c r="P24" s="57"/>
       <c r="Q24" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R24" s="38" t="s">
         <v>23</v>
@@ -4409,10 +4481,10 @@
       <c r="H25" s="70"/>
       <c r="I25" s="71"/>
       <c r="J25" s="67" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K25" s="56" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L25" s="72"/>
       <c r="M25" s="72"/>
@@ -4420,7 +4492,7 @@
       <c r="O25" s="73"/>
       <c r="P25" s="73"/>
       <c r="Q25" s="48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R25" s="75"/>
     </row>
@@ -4437,10 +4509,10 @@
       <c r="H26" s="43"/>
       <c r="I26" s="42"/>
       <c r="J26" s="39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K26" s="49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L26" s="66"/>
       <c r="M26" s="66"/>
@@ -4448,7 +4520,7 @@
       <c r="O26" s="57"/>
       <c r="P26" s="57"/>
       <c r="Q26" s="77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R26" s="38" t="s">
         <v>23</v>
@@ -4471,10 +4543,10 @@
       <c r="H27" s="70"/>
       <c r="I27" s="71"/>
       <c r="J27" s="67" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K27" s="67" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L27" s="72"/>
       <c r="M27" s="72"/>
@@ -4482,9 +4554,11 @@
       <c r="O27" s="73"/>
       <c r="P27" s="73"/>
       <c r="Q27" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="R27" s="75"/>
+        <v>54</v>
+      </c>
+      <c r="R27" s="48" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="39">
@@ -4499,10 +4573,10 @@
       <c r="H28" s="43"/>
       <c r="I28" s="42"/>
       <c r="J28" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K28" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L28" s="66"/>
       <c r="M28" s="66"/>
@@ -4510,7 +4584,7 @@
       <c r="O28" s="57"/>
       <c r="P28" s="57"/>
       <c r="Q28" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R28" s="38" t="s">
         <v>23</v>
@@ -4529,10 +4603,10 @@
       <c r="H29" s="70"/>
       <c r="I29" s="71"/>
       <c r="J29" s="67" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K29" s="67" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L29" s="72"/>
       <c r="M29" s="72"/>
@@ -4540,7 +4614,7 @@
       <c r="O29" s="73"/>
       <c r="P29" s="73"/>
       <c r="Q29" s="74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R29" s="75"/>
     </row>
@@ -4557,10 +4631,10 @@
       <c r="H30" s="43"/>
       <c r="I30" s="42"/>
       <c r="J30" s="39" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K30" s="39" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L30" s="66"/>
       <c r="M30" s="66"/>
@@ -4568,7 +4642,7 @@
       <c r="O30" s="57"/>
       <c r="P30" s="57"/>
       <c r="Q30" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R30" s="38" t="s">
         <v>23</v>
@@ -4587,10 +4661,10 @@
       <c r="H31" s="70"/>
       <c r="I31" s="71"/>
       <c r="J31" s="67" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K31" s="67" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L31" s="72"/>
       <c r="M31" s="72"/>
@@ -4598,7 +4672,7 @@
       <c r="O31" s="73"/>
       <c r="P31" s="73"/>
       <c r="Q31" s="48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R31" s="78"/>
     </row>
@@ -4615,10 +4689,10 @@
       <c r="H32" s="43"/>
       <c r="I32" s="42"/>
       <c r="J32" s="39" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K32" s="39" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L32" s="66"/>
       <c r="M32" s="66"/>
@@ -4628,7 +4702,9 @@
       <c r="Q32" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="R32" s="78"/>
+      <c r="R32" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="67">
@@ -4643,10 +4719,10 @@
       <c r="H33" s="70"/>
       <c r="I33" s="71"/>
       <c r="J33" s="67" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K33" s="67" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L33" s="72"/>
       <c r="M33" s="72"/>
@@ -4654,7 +4730,7 @@
       <c r="O33" s="73"/>
       <c r="P33" s="73"/>
       <c r="Q33" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R33" s="78"/>
     </row>
@@ -4671,10 +4747,10 @@
       <c r="H34" s="43"/>
       <c r="I34" s="42"/>
       <c r="J34" s="39" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K34" s="39" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L34" s="66"/>
       <c r="M34" s="66"/>
@@ -4682,7 +4758,7 @@
       <c r="O34" s="57"/>
       <c r="P34" s="57"/>
       <c r="Q34" s="77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R34" s="38" t="s">
         <v>23</v>
@@ -4692,7 +4768,9 @@
       <c r="A35" s="67">
         <v>1990.0</v>
       </c>
-      <c r="B35" s="68"/>
+      <c r="B35" s="68">
+        <v>4.0</v>
+      </c>
       <c r="C35" s="69"/>
       <c r="D35" s="70"/>
       <c r="E35" s="71"/>
@@ -4701,10 +4779,10 @@
       <c r="H35" s="70"/>
       <c r="I35" s="71"/>
       <c r="J35" s="67" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K35" s="67" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L35" s="72"/>
       <c r="M35" s="72"/>
@@ -4712,7 +4790,7 @@
       <c r="O35" s="73"/>
       <c r="P35" s="73"/>
       <c r="Q35" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R35" s="78"/>
     </row>
@@ -4729,10 +4807,10 @@
       <c r="H36" s="43"/>
       <c r="I36" s="42"/>
       <c r="J36" s="39" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K36" s="49" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L36" s="66"/>
       <c r="M36" s="66"/>
@@ -4740,7 +4818,7 @@
       <c r="O36" s="57"/>
       <c r="P36" s="57"/>
       <c r="Q36" s="77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R36" s="38" t="s">
         <v>23</v>
@@ -4759,10 +4837,10 @@
       <c r="H37" s="70"/>
       <c r="I37" s="71"/>
       <c r="J37" s="67" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K37" s="67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L37" s="72"/>
       <c r="M37" s="72"/>
@@ -4787,10 +4865,10 @@
       <c r="H38" s="43"/>
       <c r="I38" s="42"/>
       <c r="J38" s="39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K38" s="39" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L38" s="66"/>
       <c r="M38" s="66"/>
@@ -4817,10 +4895,10 @@
       <c r="H39" s="70"/>
       <c r="I39" s="71"/>
       <c r="J39" s="67" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K39" s="49" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L39" s="72"/>
       <c r="M39" s="72"/>
@@ -4828,7 +4906,7 @@
       <c r="O39" s="73"/>
       <c r="P39" s="73"/>
       <c r="Q39" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R39" s="78"/>
     </row>
@@ -4845,10 +4923,10 @@
       <c r="H40" s="43"/>
       <c r="I40" s="42"/>
       <c r="J40" s="39" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K40" s="49" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L40" s="66"/>
       <c r="M40" s="66"/>
@@ -4856,7 +4934,7 @@
       <c r="O40" s="57"/>
       <c r="P40" s="57"/>
       <c r="Q40" s="77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R40" s="38" t="s">
         <v>23</v>
@@ -4875,10 +4953,10 @@
       <c r="H41" s="70"/>
       <c r="I41" s="71"/>
       <c r="J41" s="67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K41" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L41" s="72"/>
       <c r="M41" s="72"/>
@@ -4886,7 +4964,7 @@
       <c r="O41" s="73"/>
       <c r="P41" s="73"/>
       <c r="Q41" s="74" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R41" s="78"/>
     </row>
@@ -4905,7 +4983,7 @@
       <c r="H42" s="43"/>
       <c r="I42" s="42"/>
       <c r="J42" s="39" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K42" s="39"/>
       <c r="L42" s="66"/>
@@ -4916,8 +4994,8 @@
       <c r="Q42" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="R42" s="38" t="s">
-        <v>23</v>
+      <c r="R42" s="48" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="43">
@@ -4933,10 +5011,10 @@
       <c r="H43" s="70"/>
       <c r="I43" s="71"/>
       <c r="J43" s="67" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K43" s="67" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L43" s="72"/>
       <c r="M43" s="72"/>
@@ -4949,7 +5027,7 @@
         <v>26</v>
       </c>
       <c r="R43" s="79" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44">
@@ -4965,10 +5043,10 @@
       <c r="H44" s="43"/>
       <c r="I44" s="42"/>
       <c r="J44" s="39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K44" s="49" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L44" s="66"/>
       <c r="M44" s="66"/>
@@ -4995,10 +5073,10 @@
       <c r="H45" s="70"/>
       <c r="I45" s="71"/>
       <c r="J45" s="67" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K45" s="67" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L45" s="72"/>
       <c r="M45" s="72"/>
@@ -5008,7 +5086,9 @@
       <c r="Q45" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="R45" s="78"/>
+      <c r="R45" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="39">
@@ -5023,22 +5103,22 @@
       <c r="H46" s="43"/>
       <c r="I46" s="42"/>
       <c r="J46" s="39" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K46" s="33" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L46" s="65" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M46" s="66"/>
       <c r="N46" s="66"/>
       <c r="O46" s="60" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P46" s="57"/>
       <c r="Q46" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R46" s="38" t="s">
         <v>23</v>
@@ -5061,10 +5141,10 @@
       <c r="H47" s="70"/>
       <c r="I47" s="71"/>
       <c r="J47" s="67" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K47" s="67" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L47" s="72"/>
       <c r="M47" s="72"/>
@@ -5093,7 +5173,7 @@
       <c r="H48" s="43"/>
       <c r="I48" s="42"/>
       <c r="J48" s="39" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K48" s="66"/>
       <c r="L48" s="66"/>
@@ -5104,8 +5184,8 @@
       <c r="Q48" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="R48" s="38" t="s">
-        <v>23</v>
+      <c r="R48" s="48" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="49">
@@ -5125,7 +5205,7 @@
       <c r="H49" s="70"/>
       <c r="I49" s="71"/>
       <c r="J49" s="67" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K49" s="72"/>
       <c r="L49" s="72"/>
@@ -5136,7 +5216,9 @@
       <c r="Q49" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="R49" s="78"/>
+      <c r="R49" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="39">
@@ -5151,10 +5233,10 @@
       <c r="H50" s="43"/>
       <c r="I50" s="42"/>
       <c r="J50" s="80" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K50" s="56" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L50" s="66"/>
       <c r="M50" s="66"/>
@@ -5162,7 +5244,7 @@
       <c r="O50" s="57"/>
       <c r="P50" s="57"/>
       <c r="Q50" s="77" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R50" s="38" t="s">
         <v>23</v>
@@ -5185,7 +5267,7 @@
       <c r="H51" s="70"/>
       <c r="I51" s="71"/>
       <c r="J51" s="67" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K51" s="67"/>
       <c r="L51" s="72"/>
@@ -5194,7 +5276,7 @@
       <c r="O51" s="73"/>
       <c r="P51" s="73"/>
       <c r="Q51" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R51" s="38"/>
     </row>
@@ -5213,7 +5295,7 @@
       <c r="H52" s="70"/>
       <c r="I52" s="71"/>
       <c r="J52" s="67" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K52" s="67"/>
       <c r="L52" s="72"/>
@@ -5222,7 +5304,7 @@
       <c r="O52" s="73"/>
       <c r="P52" s="73"/>
       <c r="Q52" s="74" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R52" s="38" t="s">
         <v>23</v>
@@ -5243,7 +5325,7 @@
       <c r="H53" s="43"/>
       <c r="I53" s="42"/>
       <c r="J53" s="39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K53" s="66"/>
       <c r="L53" s="66"/>
@@ -5254,7 +5336,7 @@
         <v>18</v>
       </c>
       <c r="Q53" s="77" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R53" s="78"/>
     </row>
@@ -5273,7 +5355,7 @@
       <c r="H54" s="70"/>
       <c r="I54" s="71"/>
       <c r="J54" s="67" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K54" s="67"/>
       <c r="L54" s="72"/>
@@ -5284,7 +5366,7 @@
         <v>18</v>
       </c>
       <c r="Q54" s="74" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R54" s="38" t="s">
         <v>23</v>
@@ -5303,10 +5385,10 @@
       <c r="H55" s="43"/>
       <c r="I55" s="42"/>
       <c r="J55" s="39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K55" s="33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L55" s="66"/>
       <c r="M55" s="66"/>
@@ -5333,10 +5415,10 @@
       <c r="H56" s="70"/>
       <c r="I56" s="71"/>
       <c r="J56" s="67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K56" s="56" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L56" s="72"/>
       <c r="M56" s="72"/>
@@ -5346,7 +5428,7 @@
         <v>18</v>
       </c>
       <c r="Q56" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R56" s="38" t="s">
         <v>23</v>
@@ -5365,10 +5447,10 @@
       <c r="H57" s="43"/>
       <c r="I57" s="42"/>
       <c r="J57" s="39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K57" s="56" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L57" s="66"/>
       <c r="M57" s="66"/>
@@ -5376,9 +5458,11 @@
       <c r="O57" s="57"/>
       <c r="P57" s="57"/>
       <c r="Q57" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="R57" s="78"/>
+        <v>54</v>
+      </c>
+      <c r="R57" s="48" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="67">
@@ -5393,10 +5477,10 @@
       <c r="H58" s="70"/>
       <c r="I58" s="71"/>
       <c r="J58" s="67" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K58" s="67" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L58" s="72"/>
       <c r="M58" s="72"/>
@@ -5404,7 +5488,7 @@
       <c r="O58" s="73"/>
       <c r="P58" s="73"/>
       <c r="Q58" s="74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R58" s="38" t="s">
         <v>23</v>
@@ -5423,10 +5507,10 @@
       <c r="H59" s="43"/>
       <c r="I59" s="42"/>
       <c r="J59" s="39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K59" s="49" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L59" s="66"/>
       <c r="M59" s="66"/>
@@ -5434,7 +5518,7 @@
       <c r="O59" s="57"/>
       <c r="P59" s="57"/>
       <c r="Q59" s="77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R59" s="78"/>
     </row>
@@ -5453,10 +5537,10 @@
       <c r="H60" s="70"/>
       <c r="I60" s="71"/>
       <c r="J60" s="67" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K60" s="49" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L60" s="72"/>
       <c r="M60" s="72"/>
@@ -5464,7 +5548,7 @@
       <c r="O60" s="73"/>
       <c r="P60" s="73"/>
       <c r="Q60" s="74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R60" s="38" t="s">
         <v>23</v>
@@ -5483,10 +5567,10 @@
       <c r="H61" s="43"/>
       <c r="I61" s="42"/>
       <c r="J61" s="39" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K61" s="39" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L61" s="66"/>
       <c r="M61" s="66"/>
@@ -5513,10 +5597,10 @@
       <c r="H62" s="70"/>
       <c r="I62" s="71"/>
       <c r="J62" s="67" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K62" s="49" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L62" s="72"/>
       <c r="M62" s="72"/>
@@ -5545,10 +5629,10 @@
       <c r="H63" s="43"/>
       <c r="I63" s="42"/>
       <c r="J63" s="39" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K63" s="39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L63" s="66"/>
       <c r="M63" s="66"/>
@@ -5556,7 +5640,7 @@
       <c r="O63" s="57"/>
       <c r="P63" s="57"/>
       <c r="Q63" s="77" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R63" s="78"/>
     </row>
@@ -5577,10 +5661,10 @@
       <c r="H64" s="70"/>
       <c r="I64" s="71"/>
       <c r="J64" s="67" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K64" s="67" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L64" s="72"/>
       <c r="M64" s="72"/>
@@ -5588,10 +5672,10 @@
       <c r="O64" s="73"/>
       <c r="P64" s="73"/>
       <c r="Q64" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="R64" s="38" t="s">
-        <v>23</v>
+        <v>54</v>
+      </c>
+      <c r="R64" s="48" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="65">
@@ -5609,10 +5693,10 @@
       <c r="H65" s="43"/>
       <c r="I65" s="42"/>
       <c r="J65" s="39" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K65" s="49" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L65" s="66"/>
       <c r="M65" s="66"/>
@@ -5622,7 +5706,9 @@
       <c r="Q65" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="R65" s="78"/>
+      <c r="R65" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="67">
@@ -5639,10 +5725,10 @@
       <c r="H66" s="70"/>
       <c r="I66" s="71"/>
       <c r="J66" s="67" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K66" s="49" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L66" s="72"/>
       <c r="M66" s="72"/>
@@ -5650,10 +5736,10 @@
       <c r="O66" s="73"/>
       <c r="P66" s="73"/>
       <c r="Q66" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="R66" s="38" t="s">
-        <v>23</v>
+        <v>54</v>
+      </c>
+      <c r="R66" s="48" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="67">
@@ -5669,10 +5755,10 @@
       <c r="H67" s="43"/>
       <c r="I67" s="42"/>
       <c r="J67" s="39" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K67" s="49" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L67" s="66"/>
       <c r="M67" s="66"/>
@@ -5680,7 +5766,7 @@
       <c r="O67" s="57"/>
       <c r="P67" s="57"/>
       <c r="Q67" s="77" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R67" s="78"/>
     </row>
@@ -5697,10 +5783,10 @@
       <c r="H68" s="70"/>
       <c r="I68" s="71"/>
       <c r="J68" s="67" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K68" s="49" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L68" s="72"/>
       <c r="M68" s="72"/>
@@ -5708,10 +5794,10 @@
       <c r="O68" s="73"/>
       <c r="P68" s="73"/>
       <c r="Q68" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="R68" s="38" t="s">
-        <v>23</v>
+        <v>54</v>
+      </c>
+      <c r="R68" s="48" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="69">
@@ -5731,10 +5817,10 @@
       <c r="H69" s="43"/>
       <c r="I69" s="42"/>
       <c r="J69" s="39" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K69" s="81" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L69" s="66"/>
       <c r="M69" s="66"/>
@@ -5744,7 +5830,9 @@
       <c r="Q69" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="R69" s="78"/>
+      <c r="R69" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="67">
@@ -5761,10 +5849,10 @@
       <c r="H70" s="70"/>
       <c r="I70" s="71"/>
       <c r="J70" s="67" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K70" s="49" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L70" s="72"/>
       <c r="M70" s="72"/>
@@ -5772,7 +5860,7 @@
       <c r="O70" s="73"/>
       <c r="P70" s="73"/>
       <c r="Q70" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R70" s="38" t="s">
         <v>23</v>
@@ -5795,10 +5883,10 @@
       <c r="H71" s="43"/>
       <c r="I71" s="42"/>
       <c r="J71" s="39" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K71" s="39" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L71" s="66"/>
       <c r="M71" s="66"/>
@@ -5806,7 +5894,7 @@
       <c r="O71" s="57"/>
       <c r="P71" s="57"/>
       <c r="Q71" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R71" s="78"/>
     </row>
@@ -5825,10 +5913,10 @@
       <c r="H72" s="70"/>
       <c r="I72" s="71"/>
       <c r="J72" s="67" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K72" s="67" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L72" s="72"/>
       <c r="M72" s="72"/>
@@ -5836,7 +5924,7 @@
       <c r="O72" s="73"/>
       <c r="P72" s="73"/>
       <c r="Q72" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R72" s="38" t="s">
         <v>23</v>
@@ -5857,10 +5945,10 @@
       <c r="H73" s="43"/>
       <c r="I73" s="42"/>
       <c r="J73" s="39" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K73" s="39" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L73" s="66"/>
       <c r="M73" s="66"/>
@@ -5870,7 +5958,9 @@
       <c r="Q73" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="R73" s="78"/>
+      <c r="R73" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="67">
@@ -5889,10 +5979,10 @@
       <c r="H74" s="70"/>
       <c r="I74" s="71"/>
       <c r="J74" s="67" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K74" s="67" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L74" s="72"/>
       <c r="M74" s="72"/>
@@ -5900,7 +5990,7 @@
       <c r="O74" s="73"/>
       <c r="P74" s="73"/>
       <c r="Q74" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R74" s="38" t="s">
         <v>23</v>
@@ -5921,10 +6011,10 @@
       <c r="H75" s="43"/>
       <c r="I75" s="42"/>
       <c r="J75" s="39" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K75" s="39" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L75" s="66"/>
       <c r="M75" s="66"/>
@@ -5932,7 +6022,7 @@
       <c r="O75" s="57"/>
       <c r="P75" s="57"/>
       <c r="Q75" s="77" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R75" s="78"/>
     </row>
@@ -5953,10 +6043,10 @@
       <c r="H76" s="70"/>
       <c r="I76" s="71"/>
       <c r="J76" s="67" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K76" s="67" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L76" s="72"/>
       <c r="M76" s="72"/>
@@ -5964,7 +6054,7 @@
       <c r="O76" s="73"/>
       <c r="P76" s="73"/>
       <c r="Q76" s="74" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R76" s="38" t="s">
         <v>23</v>
@@ -5987,10 +6077,10 @@
       <c r="H77" s="43"/>
       <c r="I77" s="42"/>
       <c r="J77" s="39" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K77" s="49" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L77" s="66"/>
       <c r="M77" s="66"/>
@@ -5998,7 +6088,7 @@
       <c r="O77" s="57"/>
       <c r="P77" s="57"/>
       <c r="Q77" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R77" s="78"/>
     </row>
@@ -6017,10 +6107,10 @@
       <c r="H78" s="70"/>
       <c r="I78" s="71"/>
       <c r="J78" s="67" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K78" s="67" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L78" s="72"/>
       <c r="M78" s="72"/>
@@ -6028,7 +6118,7 @@
       <c r="O78" s="73"/>
       <c r="P78" s="73"/>
       <c r="Q78" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R78" s="38" t="s">
         <v>23</v>
@@ -6047,10 +6137,10 @@
       <c r="H79" s="43"/>
       <c r="I79" s="42"/>
       <c r="J79" s="39" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K79" s="39" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L79" s="66"/>
       <c r="M79" s="66"/>
@@ -6079,10 +6169,10 @@
       <c r="H80" s="70"/>
       <c r="I80" s="71"/>
       <c r="J80" s="67" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K80" s="49" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L80" s="72"/>
       <c r="M80" s="72"/>
@@ -6090,7 +6180,7 @@
       <c r="O80" s="73"/>
       <c r="P80" s="73"/>
       <c r="Q80" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R80" s="38" t="s">
         <v>23</v>
@@ -6111,10 +6201,10 @@
       <c r="H81" s="43"/>
       <c r="I81" s="42"/>
       <c r="J81" s="39" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K81" s="39" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L81" s="66"/>
       <c r="M81" s="66"/>
@@ -6122,7 +6212,7 @@
       <c r="O81" s="57"/>
       <c r="P81" s="57"/>
       <c r="Q81" s="77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R81" s="78"/>
     </row>
@@ -6141,10 +6231,10 @@
       <c r="H82" s="70"/>
       <c r="I82" s="71"/>
       <c r="J82" s="67" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K82" s="67" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L82" s="72"/>
       <c r="M82" s="72"/>
@@ -6152,7 +6242,7 @@
       <c r="O82" s="73"/>
       <c r="P82" s="73"/>
       <c r="Q82" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R82" s="38" t="s">
         <v>23</v>
@@ -6173,10 +6263,10 @@
       <c r="H83" s="43"/>
       <c r="I83" s="42"/>
       <c r="J83" s="39" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K83" s="39" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L83" s="66"/>
       <c r="M83" s="66"/>
@@ -6184,7 +6274,7 @@
       <c r="O83" s="57"/>
       <c r="P83" s="57"/>
       <c r="Q83" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R83" s="78"/>
     </row>
@@ -6201,10 +6291,10 @@
       <c r="H84" s="70"/>
       <c r="I84" s="71"/>
       <c r="J84" s="67" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K84" s="67" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L84" s="72"/>
       <c r="M84" s="72"/>
@@ -6212,10 +6302,10 @@
       <c r="O84" s="73"/>
       <c r="P84" s="73"/>
       <c r="Q84" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="R84" s="38" t="s">
-        <v>23</v>
+        <v>54</v>
+      </c>
+      <c r="R84" s="48" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="85">
@@ -6233,10 +6323,10 @@
       <c r="H85" s="43"/>
       <c r="I85" s="42"/>
       <c r="J85" s="39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K85" s="33" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L85" s="66"/>
       <c r="M85" s="66"/>
@@ -6244,7 +6334,7 @@
       <c r="O85" s="57"/>
       <c r="P85" s="57"/>
       <c r="Q85" s="77" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R85" s="78"/>
     </row>
@@ -6263,10 +6353,10 @@
       <c r="H86" s="70"/>
       <c r="I86" s="71"/>
       <c r="J86" s="67" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K86" s="67" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L86" s="72"/>
       <c r="M86" s="72"/>
@@ -6274,7 +6364,7 @@
       <c r="O86" s="73"/>
       <c r="P86" s="73"/>
       <c r="Q86" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R86" s="38" t="s">
         <v>23</v>
@@ -6295,10 +6385,10 @@
       <c r="H87" s="43"/>
       <c r="I87" s="42"/>
       <c r="J87" s="39" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K87" s="39" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L87" s="66"/>
       <c r="M87" s="66"/>
@@ -6306,7 +6396,7 @@
       <c r="O87" s="57"/>
       <c r="P87" s="57"/>
       <c r="Q87" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R87" s="78"/>
     </row>
@@ -6325,10 +6415,10 @@
       <c r="H88" s="70"/>
       <c r="I88" s="71"/>
       <c r="J88" s="67" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K88" s="67" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L88" s="72"/>
       <c r="M88" s="72"/>
@@ -6336,10 +6426,10 @@
       <c r="O88" s="73"/>
       <c r="P88" s="73"/>
       <c r="Q88" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="R88" s="38" t="s">
-        <v>23</v>
+        <v>54</v>
+      </c>
+      <c r="R88" s="48" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="89">
@@ -6357,10 +6447,10 @@
       <c r="H89" s="43"/>
       <c r="I89" s="42"/>
       <c r="J89" s="39" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K89" s="39" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L89" s="66"/>
       <c r="M89" s="66"/>
@@ -6368,7 +6458,7 @@
       <c r="O89" s="57"/>
       <c r="P89" s="57"/>
       <c r="Q89" s="48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R89" s="78"/>
     </row>
@@ -6387,10 +6477,10 @@
       <c r="H90" s="70"/>
       <c r="I90" s="71"/>
       <c r="J90" s="67" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K90" s="67" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L90" s="72"/>
       <c r="M90" s="72"/>
@@ -6398,7 +6488,7 @@
       <c r="O90" s="73"/>
       <c r="P90" s="73"/>
       <c r="Q90" s="74" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R90" s="38" t="s">
         <v>23</v>
@@ -6417,10 +6507,10 @@
       <c r="H91" s="43"/>
       <c r="I91" s="42"/>
       <c r="J91" s="39" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K91" s="39" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L91" s="66"/>
       <c r="M91" s="66"/>
@@ -6428,7 +6518,7 @@
       <c r="O91" s="57"/>
       <c r="P91" s="57"/>
       <c r="Q91" s="77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R91" s="78"/>
     </row>
@@ -6447,10 +6537,10 @@
       <c r="H92" s="70"/>
       <c r="I92" s="71"/>
       <c r="J92" s="67" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K92" s="67" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L92" s="72"/>
       <c r="M92" s="72"/>
@@ -6458,10 +6548,10 @@
       <c r="O92" s="73"/>
       <c r="P92" s="73"/>
       <c r="Q92" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="R92" s="38" t="s">
-        <v>23</v>
+        <v>54</v>
+      </c>
+      <c r="R92" s="48" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="93">
@@ -6479,10 +6569,10 @@
       <c r="H93" s="43"/>
       <c r="I93" s="42"/>
       <c r="J93" s="39" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K93" s="39" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L93" s="66"/>
       <c r="M93" s="66"/>
@@ -6490,7 +6580,7 @@
       <c r="O93" s="57"/>
       <c r="P93" s="57"/>
       <c r="Q93" s="77" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R93" s="78"/>
     </row>
@@ -6509,10 +6599,10 @@
       <c r="H94" s="70"/>
       <c r="I94" s="71"/>
       <c r="J94" s="67" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K94" s="67" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L94" s="72"/>
       <c r="M94" s="72"/>
@@ -6520,7 +6610,7 @@
       <c r="O94" s="73"/>
       <c r="P94" s="73"/>
       <c r="Q94" s="74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R94" s="38" t="s">
         <v>23</v>
@@ -6541,10 +6631,10 @@
       <c r="H95" s="43"/>
       <c r="I95" s="42"/>
       <c r="J95" s="39" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K95" s="39" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L95" s="66"/>
       <c r="M95" s="66"/>
@@ -6552,7 +6642,7 @@
       <c r="O95" s="57"/>
       <c r="P95" s="57"/>
       <c r="Q95" s="77" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R95" s="78"/>
     </row>
@@ -6573,10 +6663,10 @@
       <c r="H96" s="70"/>
       <c r="I96" s="71"/>
       <c r="J96" s="67" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K96" s="67" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L96" s="72"/>
       <c r="M96" s="72"/>
@@ -6584,7 +6674,7 @@
       <c r="O96" s="73"/>
       <c r="P96" s="73"/>
       <c r="Q96" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R96" s="38" t="s">
         <v>23</v>
@@ -6607,10 +6697,10 @@
       <c r="H97" s="43"/>
       <c r="I97" s="42"/>
       <c r="J97" s="39" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K97" s="39" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L97" s="66"/>
       <c r="M97" s="66"/>
@@ -6618,7 +6708,7 @@
       <c r="O97" s="57"/>
       <c r="P97" s="57"/>
       <c r="Q97" s="77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R97" s="78"/>
     </row>
@@ -6639,10 +6729,10 @@
       <c r="H98" s="70"/>
       <c r="I98" s="71"/>
       <c r="J98" s="67" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K98" s="67" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L98" s="72"/>
       <c r="M98" s="72"/>
@@ -6650,7 +6740,7 @@
       <c r="O98" s="73"/>
       <c r="P98" s="73"/>
       <c r="Q98" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R98" s="38" t="s">
         <v>23</v>
@@ -6671,10 +6761,10 @@
       <c r="H99" s="43"/>
       <c r="I99" s="42"/>
       <c r="J99" s="39" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K99" s="39" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L99" s="66"/>
       <c r="M99" s="66"/>
@@ -6682,7 +6772,7 @@
       <c r="O99" s="57"/>
       <c r="P99" s="57"/>
       <c r="Q99" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R99" s="78"/>
     </row>
@@ -6701,10 +6791,10 @@
       <c r="H100" s="70"/>
       <c r="I100" s="71"/>
       <c r="J100" s="67" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K100" s="67" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L100" s="72"/>
       <c r="M100" s="72"/>
@@ -6712,7 +6802,7 @@
       <c r="O100" s="73"/>
       <c r="P100" s="73"/>
       <c r="Q100" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R100" s="38" t="s">
         <v>23</v>
@@ -6733,10 +6823,10 @@
       <c r="H101" s="43"/>
       <c r="I101" s="42"/>
       <c r="J101" s="39" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K101" s="39" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L101" s="66"/>
       <c r="M101" s="66"/>
@@ -6744,7 +6834,7 @@
       <c r="O101" s="57"/>
       <c r="P101" s="57"/>
       <c r="Q101" s="77" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R101" s="78"/>
     </row>
@@ -6763,10 +6853,10 @@
       <c r="H102" s="70"/>
       <c r="I102" s="71"/>
       <c r="J102" s="67" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K102" s="56" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L102" s="72"/>
       <c r="M102" s="72"/>
@@ -6774,7 +6864,7 @@
       <c r="O102" s="73"/>
       <c r="P102" s="73"/>
       <c r="Q102" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R102" s="38" t="s">
         <v>23</v>
@@ -6795,10 +6885,10 @@
       <c r="H103" s="43"/>
       <c r="I103" s="42"/>
       <c r="J103" s="39" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K103" s="39" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L103" s="66"/>
       <c r="M103" s="66"/>
@@ -6806,7 +6896,7 @@
       <c r="O103" s="57"/>
       <c r="P103" s="57"/>
       <c r="Q103" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R103" s="78"/>
     </row>
@@ -6827,10 +6917,10 @@
       <c r="H104" s="70"/>
       <c r="I104" s="71"/>
       <c r="J104" s="67" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K104" s="67" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L104" s="72"/>
       <c r="M104" s="72"/>
@@ -6838,10 +6928,10 @@
       <c r="O104" s="73"/>
       <c r="P104" s="73"/>
       <c r="Q104" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="R104" s="38" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="R104" s="48" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="105">
@@ -6861,10 +6951,10 @@
       <c r="H105" s="43"/>
       <c r="I105" s="42"/>
       <c r="J105" s="39" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K105" s="39" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L105" s="66"/>
       <c r="M105" s="66"/>
@@ -6872,7 +6962,7 @@
       <c r="O105" s="57"/>
       <c r="P105" s="57"/>
       <c r="Q105" s="77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R105" s="78"/>
     </row>
@@ -6893,10 +6983,10 @@
       <c r="H106" s="70"/>
       <c r="I106" s="71"/>
       <c r="J106" s="67" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K106" s="67" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L106" s="72"/>
       <c r="M106" s="72"/>
@@ -6904,7 +6994,7 @@
       <c r="O106" s="73"/>
       <c r="P106" s="73"/>
       <c r="Q106" s="74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R106" s="38" t="s">
         <v>23</v>
@@ -6927,10 +7017,10 @@
       <c r="H107" s="43"/>
       <c r="I107" s="42"/>
       <c r="J107" s="39" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K107" s="39" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L107" s="66"/>
       <c r="M107" s="66"/>
@@ -6938,7 +7028,7 @@
       <c r="O107" s="57"/>
       <c r="P107" s="57"/>
       <c r="Q107" s="77" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R107" s="78"/>
     </row>
@@ -6959,10 +7049,10 @@
       <c r="H108" s="70"/>
       <c r="I108" s="71"/>
       <c r="J108" s="67" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K108" s="67" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L108" s="72"/>
       <c r="M108" s="72"/>
@@ -6970,7 +7060,7 @@
       <c r="O108" s="73"/>
       <c r="P108" s="73"/>
       <c r="Q108" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R108" s="38" t="s">
         <v>23</v>
@@ -6993,10 +7083,10 @@
       <c r="H109" s="43"/>
       <c r="I109" s="42"/>
       <c r="J109" s="39" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K109" s="39" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L109" s="66"/>
       <c r="M109" s="66"/>
@@ -7025,10 +7115,10 @@
       <c r="H110" s="70"/>
       <c r="I110" s="71"/>
       <c r="J110" s="67" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K110" s="67" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L110" s="72"/>
       <c r="M110" s="72"/>
@@ -7036,10 +7126,10 @@
       <c r="O110" s="73"/>
       <c r="P110" s="73"/>
       <c r="Q110" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="R110" s="38" t="s">
-        <v>23</v>
+        <v>54</v>
+      </c>
+      <c r="R110" s="48" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="111">
@@ -7059,10 +7149,10 @@
       <c r="H111" s="43"/>
       <c r="I111" s="42"/>
       <c r="J111" s="39" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K111" s="39" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L111" s="66"/>
       <c r="M111" s="66"/>
@@ -7070,7 +7160,7 @@
       <c r="O111" s="57"/>
       <c r="P111" s="57"/>
       <c r="Q111" s="77" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R111" s="78"/>
     </row>
@@ -7091,10 +7181,10 @@
       <c r="H112" s="70"/>
       <c r="I112" s="71"/>
       <c r="J112" s="67" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K112" s="67" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L112" s="72"/>
       <c r="M112" s="72"/>
@@ -7102,7 +7192,7 @@
       <c r="O112" s="73"/>
       <c r="P112" s="73"/>
       <c r="Q112" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R112" s="38" t="s">
         <v>23</v>
@@ -7125,10 +7215,10 @@
       <c r="H113" s="43"/>
       <c r="I113" s="42"/>
       <c r="J113" s="39" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K113" s="39" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L113" s="66"/>
       <c r="M113" s="66"/>
@@ -7155,10 +7245,10 @@
       <c r="H114" s="70"/>
       <c r="I114" s="71"/>
       <c r="J114" s="67" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K114" s="67" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L114" s="72"/>
       <c r="M114" s="72"/>
@@ -7166,7 +7256,7 @@
       <c r="O114" s="73"/>
       <c r="P114" s="73"/>
       <c r="Q114" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R114" s="38" t="s">
         <v>23</v>
@@ -7189,10 +7279,10 @@
       <c r="H115" s="43"/>
       <c r="I115" s="42"/>
       <c r="J115" s="39" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K115" s="39" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L115" s="66"/>
       <c r="M115" s="66"/>
@@ -7200,7 +7290,7 @@
       <c r="O115" s="57"/>
       <c r="P115" s="57"/>
       <c r="Q115" s="77" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R115" s="78"/>
     </row>
@@ -7219,7 +7309,7 @@
       <c r="H116" s="70"/>
       <c r="I116" s="71"/>
       <c r="J116" s="67" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K116" s="72"/>
       <c r="L116" s="72"/>
@@ -7228,7 +7318,7 @@
       <c r="O116" s="73"/>
       <c r="P116" s="73"/>
       <c r="Q116" s="74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R116" s="38" t="s">
         <v>23</v>
@@ -7251,10 +7341,10 @@
       <c r="H117" s="43"/>
       <c r="I117" s="42"/>
       <c r="J117" s="39" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K117" s="39" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L117" s="66"/>
       <c r="M117" s="66"/>
@@ -7262,7 +7352,7 @@
       <c r="O117" s="57"/>
       <c r="P117" s="57"/>
       <c r="Q117" s="77" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R117" s="78"/>
     </row>
@@ -7283,10 +7373,10 @@
       <c r="H118" s="70"/>
       <c r="I118" s="71"/>
       <c r="J118" s="67" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K118" s="67" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L118" s="72"/>
       <c r="M118" s="72"/>
@@ -7296,8 +7386,8 @@
       <c r="Q118" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="R118" s="38" t="s">
-        <v>23</v>
+      <c r="R118" s="48" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="119">
@@ -7313,10 +7403,10 @@
       <c r="H119" s="43"/>
       <c r="I119" s="42"/>
       <c r="J119" s="39" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K119" s="39" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L119" s="66"/>
       <c r="M119" s="66"/>
@@ -7324,7 +7414,7 @@
       <c r="O119" s="57"/>
       <c r="P119" s="57"/>
       <c r="Q119" s="77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R119" s="78"/>
     </row>
@@ -7343,10 +7433,10 @@
       <c r="H120" s="70"/>
       <c r="I120" s="71"/>
       <c r="J120" s="67" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K120" s="67" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L120" s="72"/>
       <c r="M120" s="72"/>
@@ -7354,7 +7444,7 @@
       <c r="O120" s="73"/>
       <c r="P120" s="73"/>
       <c r="Q120" s="74" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R120" s="38" t="s">
         <v>23</v>
@@ -7377,10 +7467,10 @@
       <c r="H121" s="43"/>
       <c r="I121" s="42"/>
       <c r="J121" s="39" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K121" s="39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L121" s="66"/>
       <c r="M121" s="66"/>
@@ -7409,10 +7499,10 @@
       <c r="H122" s="70"/>
       <c r="I122" s="71"/>
       <c r="J122" s="67" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K122" s="67" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L122" s="72"/>
       <c r="M122" s="72"/>
@@ -7420,7 +7510,7 @@
       <c r="O122" s="73"/>
       <c r="P122" s="73"/>
       <c r="Q122" s="74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R122" s="38" t="s">
         <v>23</v>
@@ -7443,10 +7533,10 @@
       <c r="H123" s="43"/>
       <c r="I123" s="42"/>
       <c r="J123" s="39" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K123" s="39" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L123" s="66"/>
       <c r="M123" s="66"/>
@@ -7475,10 +7565,10 @@
       <c r="H124" s="70"/>
       <c r="I124" s="71"/>
       <c r="J124" s="67" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K124" s="67" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L124" s="72"/>
       <c r="M124" s="72"/>
@@ -7505,10 +7595,10 @@
       <c r="H125" s="43"/>
       <c r="I125" s="42"/>
       <c r="J125" s="39" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K125" s="39" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L125" s="66"/>
       <c r="M125" s="66"/>
@@ -7533,10 +7623,10 @@
       <c r="H126" s="70"/>
       <c r="I126" s="71"/>
       <c r="J126" s="67" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K126" s="67" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L126" s="72"/>
       <c r="M126" s="72"/>
@@ -7544,7 +7634,7 @@
       <c r="O126" s="73"/>
       <c r="P126" s="73"/>
       <c r="Q126" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R126" s="38" t="s">
         <v>23</v>
@@ -7567,10 +7657,10 @@
       <c r="H127" s="43"/>
       <c r="I127" s="42"/>
       <c r="J127" s="39" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K127" s="39" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L127" s="66"/>
       <c r="M127" s="66"/>
@@ -7599,10 +7689,10 @@
       <c r="H128" s="70"/>
       <c r="I128" s="71"/>
       <c r="J128" s="67" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K128" s="67" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L128" s="72"/>
       <c r="M128" s="72"/>
@@ -7633,10 +7723,10 @@
       <c r="H129" s="43"/>
       <c r="I129" s="42"/>
       <c r="J129" s="39" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K129" s="39" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L129" s="66"/>
       <c r="M129" s="66"/>
@@ -7665,10 +7755,10 @@
       <c r="H130" s="70"/>
       <c r="I130" s="71"/>
       <c r="J130" s="67" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K130" s="67" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L130" s="72"/>
       <c r="M130" s="72"/>
@@ -7676,7 +7766,7 @@
       <c r="O130" s="73"/>
       <c r="P130" s="73"/>
       <c r="Q130" s="74" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R130" s="38" t="s">
         <v>23</v>
@@ -7699,10 +7789,10 @@
       <c r="H131" s="43"/>
       <c r="I131" s="42"/>
       <c r="J131" s="39" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K131" s="39" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L131" s="66"/>
       <c r="M131" s="66"/>
@@ -7731,10 +7821,10 @@
       <c r="H132" s="70"/>
       <c r="I132" s="71"/>
       <c r="J132" s="67" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K132" s="67" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L132" s="72"/>
       <c r="M132" s="72"/>
@@ -7742,7 +7832,7 @@
       <c r="O132" s="73"/>
       <c r="P132" s="73"/>
       <c r="Q132" s="74" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R132" s="38" t="s">
         <v>23</v>
@@ -7765,10 +7855,10 @@
       <c r="H133" s="43"/>
       <c r="I133" s="42"/>
       <c r="J133" s="39" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K133" s="39" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L133" s="66"/>
       <c r="M133" s="66"/>
@@ -7797,10 +7887,10 @@
       <c r="H134" s="70"/>
       <c r="I134" s="71"/>
       <c r="J134" s="67" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K134" s="67" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L134" s="72"/>
       <c r="M134" s="72"/>
@@ -7831,10 +7921,10 @@
       <c r="H135" s="43"/>
       <c r="I135" s="42"/>
       <c r="J135" s="39" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K135" s="39" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L135" s="66"/>
       <c r="M135" s="66"/>
@@ -7859,10 +7949,10 @@
       <c r="H136" s="70"/>
       <c r="I136" s="71"/>
       <c r="J136" s="67" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K136" s="67" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L136" s="72"/>
       <c r="M136" s="72"/>
@@ -7891,10 +7981,10 @@
       <c r="H137" s="43"/>
       <c r="I137" s="42"/>
       <c r="J137" s="39" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K137" s="39" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L137" s="66"/>
       <c r="M137" s="66"/>
@@ -7923,10 +8013,10 @@
       <c r="H138" s="70"/>
       <c r="I138" s="71"/>
       <c r="J138" s="67" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K138" s="67" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L138" s="72"/>
       <c r="M138" s="72"/>
@@ -7934,7 +8024,7 @@
       <c r="O138" s="73"/>
       <c r="P138" s="73"/>
       <c r="Q138" s="74" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R138" s="38" t="s">
         <v>23</v>
@@ -7955,10 +8045,10 @@
       <c r="H139" s="43"/>
       <c r="I139" s="42"/>
       <c r="J139" s="39" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K139" s="39" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L139" s="66"/>
       <c r="M139" s="66"/>
@@ -7966,7 +8056,7 @@
       <c r="O139" s="57"/>
       <c r="P139" s="57"/>
       <c r="Q139" s="77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R139" s="78"/>
     </row>
@@ -7987,10 +8077,10 @@
       <c r="H140" s="70"/>
       <c r="I140" s="71"/>
       <c r="J140" s="67" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K140" s="67" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L140" s="72"/>
       <c r="M140" s="72"/>
@@ -8021,10 +8111,10 @@
       <c r="H141" s="43"/>
       <c r="I141" s="42"/>
       <c r="J141" s="39" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K141" s="39" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L141" s="66"/>
       <c r="M141" s="66"/>
@@ -8032,7 +8122,7 @@
       <c r="O141" s="57"/>
       <c r="P141" s="57"/>
       <c r="Q141" s="77" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R141" s="78"/>
     </row>
@@ -8051,10 +8141,10 @@
       <c r="H142" s="70"/>
       <c r="I142" s="71"/>
       <c r="J142" s="67" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K142" s="67" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L142" s="72"/>
       <c r="M142" s="72"/>
@@ -8062,7 +8152,7 @@
       <c r="O142" s="73"/>
       <c r="P142" s="73"/>
       <c r="Q142" s="74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R142" s="38" t="s">
         <v>23</v>
@@ -8083,10 +8173,10 @@
       <c r="H143" s="43"/>
       <c r="I143" s="42"/>
       <c r="J143" s="39" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K143" s="39" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L143" s="66"/>
       <c r="M143" s="66"/>
@@ -8113,10 +8203,10 @@
       <c r="H144" s="70"/>
       <c r="I144" s="71"/>
       <c r="J144" s="67" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K144" s="67" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L144" s="72"/>
       <c r="M144" s="72"/>
@@ -8147,10 +8237,10 @@
       <c r="H145" s="43"/>
       <c r="I145" s="42"/>
       <c r="J145" s="39" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K145" s="39" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L145" s="66"/>
       <c r="M145" s="66"/>
@@ -8158,7 +8248,7 @@
       <c r="O145" s="57"/>
       <c r="P145" s="57"/>
       <c r="Q145" s="77" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="R145" s="78"/>
     </row>
@@ -8179,10 +8269,10 @@
       <c r="H146" s="70"/>
       <c r="I146" s="71"/>
       <c r="J146" s="67" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K146" s="67" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L146" s="72"/>
       <c r="M146" s="72"/>
@@ -8190,7 +8280,7 @@
       <c r="O146" s="73"/>
       <c r="P146" s="73"/>
       <c r="Q146" s="74" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R146" s="38" t="s">
         <v>23</v>
@@ -8208,19 +8298,19 @@
       </c>
       <c r="D147" s="43"/>
       <c r="E147" s="42" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F147" s="42" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G147" s="42"/>
       <c r="H147" s="43"/>
       <c r="I147" s="42"/>
       <c r="J147" s="39" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K147" s="39" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L147" s="66"/>
       <c r="M147" s="66"/>
@@ -8230,7 +8320,7 @@
         <v>18</v>
       </c>
       <c r="Q147" s="77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R147" s="78"/>
     </row>
@@ -8249,10 +8339,10 @@
       <c r="H148" s="70"/>
       <c r="I148" s="71"/>
       <c r="J148" s="67" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K148" s="67" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L148" s="72"/>
       <c r="M148" s="72"/>
@@ -8260,7 +8350,7 @@
       <c r="O148" s="73"/>
       <c r="P148" s="73"/>
       <c r="Q148" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R148" s="38" t="s">
         <v>23</v>
@@ -8281,10 +8371,10 @@
       <c r="H149" s="43"/>
       <c r="I149" s="42"/>
       <c r="J149" s="39" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K149" s="33" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L149" s="66"/>
       <c r="M149" s="66"/>
@@ -8309,10 +8399,10 @@
       <c r="H150" s="70"/>
       <c r="I150" s="71"/>
       <c r="J150" s="67" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K150" s="67" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L150" s="72"/>
       <c r="M150" s="72"/>
@@ -8341,10 +8431,10 @@
       <c r="H151" s="43"/>
       <c r="I151" s="42"/>
       <c r="J151" s="39" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K151" s="39" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L151" s="66"/>
       <c r="M151" s="66"/>
@@ -8371,10 +8461,10 @@
       <c r="H152" s="70"/>
       <c r="I152" s="71"/>
       <c r="J152" s="67" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K152" s="67" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L152" s="72"/>
       <c r="M152" s="72"/>
@@ -8405,10 +8495,10 @@
       <c r="H153" s="43"/>
       <c r="I153" s="42"/>
       <c r="J153" s="39" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K153" s="39" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L153" s="66"/>
       <c r="M153" s="66"/>
@@ -8416,7 +8506,7 @@
       <c r="O153" s="57"/>
       <c r="P153" s="57"/>
       <c r="Q153" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R153" s="78"/>
     </row>
@@ -8435,10 +8525,10 @@
       <c r="H154" s="70"/>
       <c r="I154" s="71"/>
       <c r="J154" s="67" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K154" s="67" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L154" s="72"/>
       <c r="M154" s="72"/>
@@ -8467,7 +8557,7 @@
       <c r="H155" s="43"/>
       <c r="I155" s="42"/>
       <c r="J155" s="39" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K155" s="66"/>
       <c r="L155" s="66"/>
@@ -8476,7 +8566,7 @@
       <c r="O155" s="57"/>
       <c r="P155" s="57"/>
       <c r="Q155" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R155" s="78"/>
     </row>
@@ -8495,10 +8585,10 @@
       <c r="H156" s="70"/>
       <c r="I156" s="71"/>
       <c r="J156" s="67" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K156" s="67" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L156" s="72"/>
       <c r="M156" s="72"/>
@@ -8527,10 +8617,10 @@
       <c r="H157" s="43"/>
       <c r="I157" s="42"/>
       <c r="J157" s="39" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K157" s="39" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L157" s="66"/>
       <c r="M157" s="66"/>
@@ -8552,16 +8642,16 @@
       <c r="C158" s="69"/>
       <c r="D158" s="70"/>
       <c r="E158" s="71" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F158" s="71" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G158" s="71"/>
       <c r="H158" s="70"/>
       <c r="I158" s="71"/>
       <c r="J158" s="67" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K158" s="72"/>
       <c r="L158" s="72"/>
@@ -8591,7 +8681,7 @@
       <c r="H159" s="43"/>
       <c r="I159" s="42"/>
       <c r="J159" s="39" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K159" s="66"/>
       <c r="L159" s="66"/>
@@ -8619,10 +8709,10 @@
       <c r="H160" s="70"/>
       <c r="I160" s="71"/>
       <c r="J160" s="67" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K160" s="67" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L160" s="72"/>
       <c r="M160" s="72"/>
@@ -8630,7 +8720,7 @@
       <c r="O160" s="73"/>
       <c r="P160" s="73"/>
       <c r="Q160" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R160" s="38" t="s">
         <v>23</v>
@@ -8651,10 +8741,10 @@
       <c r="H161" s="43"/>
       <c r="I161" s="42"/>
       <c r="J161" s="39" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K161" s="39" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L161" s="66"/>
       <c r="M161" s="66"/>
@@ -8662,7 +8752,7 @@
       <c r="O161" s="57"/>
       <c r="P161" s="57"/>
       <c r="Q161" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R161" s="78"/>
     </row>
@@ -8681,10 +8771,10 @@
       <c r="H162" s="70"/>
       <c r="I162" s="71"/>
       <c r="J162" s="67" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K162" s="67" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L162" s="72"/>
       <c r="M162" s="72"/>
@@ -8713,10 +8803,10 @@
       <c r="H163" s="43"/>
       <c r="I163" s="42"/>
       <c r="J163" s="39" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K163" s="39" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L163" s="66"/>
       <c r="M163" s="66"/>
@@ -8724,7 +8814,7 @@
       <c r="O163" s="57"/>
       <c r="P163" s="57"/>
       <c r="Q163" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R163" s="78"/>
     </row>
@@ -8743,10 +8833,10 @@
       <c r="H164" s="70"/>
       <c r="I164" s="71"/>
       <c r="J164" s="67" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K164" s="67" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L164" s="72"/>
       <c r="M164" s="72"/>
@@ -8754,7 +8844,7 @@
       <c r="O164" s="73"/>
       <c r="P164" s="73"/>
       <c r="Q164" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R164" s="38" t="s">
         <v>23</v>
@@ -8775,10 +8865,10 @@
       <c r="H165" s="43"/>
       <c r="I165" s="42"/>
       <c r="J165" s="39" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K165" s="39" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L165" s="66"/>
       <c r="M165" s="66"/>
@@ -8803,10 +8893,10 @@
       <c r="H166" s="70"/>
       <c r="I166" s="71"/>
       <c r="J166" s="67" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K166" s="67" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L166" s="72"/>
       <c r="M166" s="72"/>
@@ -8814,7 +8904,7 @@
       <c r="O166" s="73"/>
       <c r="P166" s="73"/>
       <c r="Q166" s="74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R166" s="38" t="s">
         <v>23</v>
@@ -8832,21 +8922,21 @@
       </c>
       <c r="D167" s="43"/>
       <c r="E167" s="42" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F167" s="42" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G167" s="42" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H167" s="43"/>
       <c r="I167" s="42"/>
       <c r="J167" s="39" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K167" s="39" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L167" s="66"/>
       <c r="M167" s="66"/>
@@ -8854,7 +8944,7 @@
       <c r="O167" s="57"/>
       <c r="P167" s="57"/>
       <c r="Q167" s="77" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R167" s="78"/>
     </row>
@@ -8875,10 +8965,10 @@
       <c r="H168" s="70"/>
       <c r="I168" s="71"/>
       <c r="J168" s="67" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K168" s="67" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L168" s="72"/>
       <c r="M168" s="72"/>
@@ -8886,10 +8976,10 @@
       <c r="O168" s="73"/>
       <c r="P168" s="73"/>
       <c r="Q168" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R168" s="79" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="169">
@@ -8907,10 +8997,10 @@
       <c r="H169" s="43"/>
       <c r="I169" s="42"/>
       <c r="J169" s="39" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K169" s="39" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L169" s="66"/>
       <c r="M169" s="66"/>
@@ -8918,10 +9008,10 @@
       <c r="O169" s="57"/>
       <c r="P169" s="57"/>
       <c r="Q169" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R169" s="79" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="170">
@@ -8937,10 +9027,10 @@
       <c r="H170" s="70"/>
       <c r="I170" s="71"/>
       <c r="J170" s="67" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K170" s="67" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L170" s="72"/>
       <c r="M170" s="72"/>
@@ -8948,7 +9038,7 @@
       <c r="O170" s="73"/>
       <c r="P170" s="73"/>
       <c r="Q170" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R170" s="38" t="s">
         <v>23</v>
@@ -8967,10 +9057,10 @@
       <c r="H171" s="43"/>
       <c r="I171" s="42"/>
       <c r="J171" s="39" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K171" s="39" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L171" s="66"/>
       <c r="M171" s="66"/>
@@ -8978,7 +9068,7 @@
       <c r="O171" s="57"/>
       <c r="P171" s="57"/>
       <c r="Q171" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R171" s="78"/>
     </row>
@@ -8997,10 +9087,10 @@
       <c r="H172" s="70"/>
       <c r="I172" s="71"/>
       <c r="J172" s="67" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K172" s="67" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L172" s="72"/>
       <c r="M172" s="72"/>
@@ -9008,10 +9098,10 @@
       <c r="O172" s="73"/>
       <c r="P172" s="73"/>
       <c r="Q172" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R172" s="79" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="173">
@@ -9029,10 +9119,10 @@
       <c r="H173" s="43"/>
       <c r="I173" s="42"/>
       <c r="J173" s="39" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K173" s="39" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L173" s="66"/>
       <c r="M173" s="66"/>
@@ -9040,7 +9130,7 @@
       <c r="O173" s="57"/>
       <c r="P173" s="57"/>
       <c r="Q173" s="77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R173" s="78"/>
     </row>
@@ -9057,10 +9147,10 @@
       <c r="H174" s="70"/>
       <c r="I174" s="71"/>
       <c r="J174" s="67" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K174" s="67" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L174" s="72"/>
       <c r="M174" s="72"/>
@@ -9068,7 +9158,7 @@
       <c r="O174" s="73"/>
       <c r="P174" s="73"/>
       <c r="Q174" s="74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R174" s="38" t="s">
         <v>23</v>
@@ -9091,10 +9181,10 @@
       <c r="H175" s="43"/>
       <c r="I175" s="42"/>
       <c r="J175" s="39" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K175" s="39" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L175" s="66"/>
       <c r="M175" s="66"/>
@@ -9102,10 +9192,10 @@
       <c r="O175" s="57"/>
       <c r="P175" s="57"/>
       <c r="Q175" s="77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R175" s="79" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="176">
@@ -9120,18 +9210,18 @@
       </c>
       <c r="D176" s="70"/>
       <c r="E176" s="71" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F176" s="71" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G176" s="71" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H176" s="70"/>
       <c r="I176" s="71"/>
       <c r="J176" s="67" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K176" s="72"/>
       <c r="L176" s="72"/>
@@ -9143,7 +9233,7 @@
         <v>26</v>
       </c>
       <c r="R176" s="79" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="177">
@@ -9161,10 +9251,10 @@
       <c r="H177" s="43"/>
       <c r="I177" s="42"/>
       <c r="J177" s="39" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K177" s="39" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L177" s="66"/>
       <c r="M177" s="66"/>
@@ -9172,7 +9262,7 @@
       <c r="O177" s="57"/>
       <c r="P177" s="57"/>
       <c r="Q177" s="77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R177" s="78"/>
     </row>
@@ -9189,10 +9279,10 @@
       <c r="H178" s="70"/>
       <c r="I178" s="71"/>
       <c r="J178" s="67" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K178" s="67" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L178" s="72"/>
       <c r="M178" s="72"/>
@@ -9200,10 +9290,10 @@
       <c r="O178" s="73"/>
       <c r="P178" s="73"/>
       <c r="Q178" s="74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R178" s="79" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="179">
@@ -9223,10 +9313,10 @@
       <c r="H179" s="43"/>
       <c r="I179" s="42"/>
       <c r="J179" s="39" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K179" s="56" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L179" s="66"/>
       <c r="M179" s="66"/>
@@ -9237,7 +9327,7 @@
         <v>22</v>
       </c>
       <c r="R179" s="79" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="180">
@@ -9253,10 +9343,10 @@
       <c r="H180" s="70"/>
       <c r="I180" s="71"/>
       <c r="J180" s="67" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K180" s="67" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L180" s="72"/>
       <c r="M180" s="72"/>
@@ -9264,10 +9354,10 @@
       <c r="O180" s="73"/>
       <c r="P180" s="73"/>
       <c r="Q180" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R180" s="79" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="181">
@@ -9283,10 +9373,10 @@
       <c r="H181" s="43"/>
       <c r="I181" s="42"/>
       <c r="J181" s="39" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K181" s="49" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L181" s="66"/>
       <c r="M181" s="66"/>
@@ -9294,10 +9384,10 @@
       <c r="O181" s="57"/>
       <c r="P181" s="57"/>
       <c r="Q181" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R181" s="79" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="182">
@@ -9313,10 +9403,10 @@
       <c r="H182" s="70"/>
       <c r="I182" s="71"/>
       <c r="J182" s="67" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K182" s="67" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L182" s="72"/>
       <c r="M182" s="72"/>
@@ -9324,10 +9414,10 @@
       <c r="O182" s="73"/>
       <c r="P182" s="73"/>
       <c r="Q182" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R182" s="79" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="183">
@@ -9347,10 +9437,10 @@
       <c r="H183" s="43"/>
       <c r="I183" s="42"/>
       <c r="J183" s="39" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K183" s="39" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L183" s="66"/>
       <c r="M183" s="66"/>
@@ -9358,10 +9448,10 @@
       <c r="O183" s="57"/>
       <c r="P183" s="57"/>
       <c r="Q183" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R183" s="79" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="184">
@@ -9377,10 +9467,10 @@
       <c r="H184" s="70"/>
       <c r="I184" s="71"/>
       <c r="J184" s="67" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K184" s="67" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L184" s="72"/>
       <c r="M184" s="72"/>
@@ -9388,10 +9478,10 @@
       <c r="O184" s="73"/>
       <c r="P184" s="73"/>
       <c r="Q184" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R184" s="79" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="185">
@@ -9407,10 +9497,10 @@
       <c r="H185" s="43"/>
       <c r="I185" s="42"/>
       <c r="J185" s="39" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K185" s="39" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L185" s="66"/>
       <c r="M185" s="66"/>
@@ -9418,10 +9508,10 @@
       <c r="O185" s="57"/>
       <c r="P185" s="57"/>
       <c r="Q185" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R185" s="79" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="186">
@@ -9439,10 +9529,10 @@
       <c r="H186" s="70"/>
       <c r="I186" s="71"/>
       <c r="J186" s="67" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K186" s="67" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L186" s="72"/>
       <c r="M186" s="72"/>
@@ -9450,10 +9540,10 @@
       <c r="O186" s="73"/>
       <c r="P186" s="73"/>
       <c r="Q186" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R186" s="79" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="187">
@@ -9471,10 +9561,10 @@
       <c r="H187" s="43"/>
       <c r="I187" s="42"/>
       <c r="J187" s="39" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K187" s="39" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L187" s="66"/>
       <c r="M187" s="66"/>
@@ -9482,7 +9572,7 @@
       <c r="O187" s="57"/>
       <c r="P187" s="57"/>
       <c r="Q187" s="77" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R187" s="78"/>
     </row>
@@ -9501,10 +9591,10 @@
       <c r="H188" s="70"/>
       <c r="I188" s="71"/>
       <c r="J188" s="67" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K188" s="67" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L188" s="72"/>
       <c r="M188" s="72"/>
@@ -9512,7 +9602,7 @@
       <c r="O188" s="73"/>
       <c r="P188" s="73"/>
       <c r="Q188" s="48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R188" s="38" t="s">
         <v>23</v>
@@ -9531,7 +9621,7 @@
       <c r="H189" s="43"/>
       <c r="I189" s="42"/>
       <c r="J189" s="39" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K189" s="39"/>
       <c r="L189" s="66"/>
@@ -9540,7 +9630,7 @@
       <c r="O189" s="57"/>
       <c r="P189" s="57"/>
       <c r="Q189" s="48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R189" s="78"/>
     </row>
@@ -9559,10 +9649,10 @@
       <c r="H190" s="70"/>
       <c r="I190" s="71"/>
       <c r="J190" s="67" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K190" s="67" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L190" s="72"/>
       <c r="M190" s="72"/>
@@ -9570,10 +9660,10 @@
       <c r="O190" s="73"/>
       <c r="P190" s="73"/>
       <c r="Q190" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R190" s="79" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="191">
@@ -9591,10 +9681,10 @@
       <c r="H191" s="43"/>
       <c r="I191" s="42"/>
       <c r="J191" s="39" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K191" s="39" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L191" s="66"/>
       <c r="M191" s="66"/>
@@ -9602,7 +9692,7 @@
       <c r="O191" s="57"/>
       <c r="P191" s="57"/>
       <c r="Q191" s="77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R191" s="78"/>
     </row>
@@ -9621,10 +9711,10 @@
       <c r="H192" s="70"/>
       <c r="I192" s="71"/>
       <c r="J192" s="67" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K192" s="67" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L192" s="72"/>
       <c r="M192" s="72"/>
@@ -9632,10 +9722,10 @@
       <c r="O192" s="73"/>
       <c r="P192" s="73"/>
       <c r="Q192" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R192" s="79" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="193">
@@ -9655,10 +9745,10 @@
       <c r="H193" s="43"/>
       <c r="I193" s="42"/>
       <c r="J193" s="39" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K193" s="39" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L193" s="66"/>
       <c r="M193" s="66"/>
@@ -9666,10 +9756,10 @@
       <c r="O193" s="57"/>
       <c r="P193" s="57"/>
       <c r="Q193" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R193" s="79" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="194">
@@ -9689,7 +9779,7 @@
       <c r="H194" s="70"/>
       <c r="I194" s="71"/>
       <c r="J194" s="67" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K194" s="72"/>
       <c r="L194" s="72"/>
@@ -9698,10 +9788,10 @@
       <c r="O194" s="73"/>
       <c r="P194" s="73"/>
       <c r="Q194" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R194" s="79" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="195">
@@ -9721,7 +9811,7 @@
       <c r="H195" s="43"/>
       <c r="I195" s="42"/>
       <c r="J195" s="39" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K195" s="66"/>
       <c r="L195" s="66"/>
@@ -9730,10 +9820,10 @@
       <c r="O195" s="57"/>
       <c r="P195" s="57"/>
       <c r="Q195" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R195" s="79" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="196">
@@ -9753,7 +9843,7 @@
       <c r="H196" s="70"/>
       <c r="I196" s="71"/>
       <c r="J196" s="67" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K196" s="72"/>
       <c r="L196" s="72"/>
@@ -9762,10 +9852,10 @@
       <c r="O196" s="73"/>
       <c r="P196" s="73"/>
       <c r="Q196" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R196" s="79" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="197">
@@ -9783,7 +9873,7 @@
       <c r="H197" s="43"/>
       <c r="I197" s="42"/>
       <c r="J197" s="39" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K197" s="66"/>
       <c r="L197" s="66"/>
@@ -9792,10 +9882,10 @@
       <c r="O197" s="57"/>
       <c r="P197" s="57"/>
       <c r="Q197" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R197" s="79" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="198">
@@ -9815,10 +9905,10 @@
       <c r="H198" s="70"/>
       <c r="I198" s="71"/>
       <c r="J198" s="67" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K198" s="67" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L198" s="72"/>
       <c r="M198" s="72"/>
@@ -9826,10 +9916,10 @@
       <c r="O198" s="73"/>
       <c r="P198" s="73"/>
       <c r="Q198" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R198" s="79" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="199">
@@ -9847,7 +9937,7 @@
       <c r="H199" s="43"/>
       <c r="I199" s="42"/>
       <c r="J199" s="39" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K199" s="66"/>
       <c r="L199" s="66"/>
@@ -9856,10 +9946,10 @@
       <c r="O199" s="57"/>
       <c r="P199" s="57"/>
       <c r="Q199" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R199" s="82" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="200">
@@ -9877,7 +9967,7 @@
       <c r="H200" s="70"/>
       <c r="I200" s="71"/>
       <c r="J200" s="67" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K200" s="72"/>
       <c r="L200" s="72"/>
@@ -9886,10 +9976,10 @@
       <c r="O200" s="73"/>
       <c r="P200" s="73"/>
       <c r="Q200" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R200" s="79" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="201">
@@ -9909,7 +9999,7 @@
       <c r="H201" s="43"/>
       <c r="I201" s="42"/>
       <c r="J201" s="39" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K201" s="66"/>
       <c r="L201" s="66"/>
@@ -9921,7 +10011,7 @@
         <v>22</v>
       </c>
       <c r="R201" s="79" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="202">
@@ -9939,7 +10029,7 @@
       <c r="H202" s="70"/>
       <c r="I202" s="71"/>
       <c r="J202" s="67" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K202" s="72"/>
       <c r="L202" s="72"/>
@@ -9948,10 +10038,10 @@
       <c r="O202" s="73"/>
       <c r="P202" s="73"/>
       <c r="Q202" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R202" s="79" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="203">
@@ -9967,10 +10057,10 @@
       <c r="H203" s="43"/>
       <c r="I203" s="42"/>
       <c r="J203" s="39" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K203" s="39" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L203" s="66"/>
       <c r="M203" s="66"/>
@@ -9978,7 +10068,7 @@
       <c r="O203" s="57"/>
       <c r="P203" s="57"/>
       <c r="Q203" s="77" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R203" s="78"/>
     </row>
@@ -9990,14 +10080,14 @@
       <c r="C204" s="69"/>
       <c r="D204" s="71"/>
       <c r="E204" s="71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F204" s="71"/>
       <c r="G204" s="71"/>
       <c r="H204" s="70"/>
       <c r="I204" s="71"/>
       <c r="J204" s="67" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K204" s="67"/>
       <c r="L204" s="72"/>
@@ -10006,7 +10096,7 @@
       <c r="O204" s="73"/>
       <c r="P204" s="73"/>
       <c r="Q204" s="48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R204" s="38" t="s">
         <v>23</v>
@@ -10027,7 +10117,7 @@
       <c r="H205" s="70"/>
       <c r="I205" s="71"/>
       <c r="J205" s="67" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K205" s="67"/>
       <c r="L205" s="72"/>
@@ -10036,7 +10126,7 @@
       <c r="O205" s="73"/>
       <c r="P205" s="73"/>
       <c r="Q205" s="48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R205" s="38" t="s">
         <v>23</v>
@@ -10050,17 +10140,17 @@
       <c r="C206" s="41"/>
       <c r="D206" s="43"/>
       <c r="E206" s="42" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F206" s="42"/>
       <c r="G206" s="42"/>
       <c r="H206" s="43"/>
       <c r="I206" s="42"/>
       <c r="J206" s="39" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K206" s="39" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L206" s="66"/>
       <c r="M206" s="66"/>
@@ -10073,7 +10163,7 @@
         <v>26</v>
       </c>
       <c r="R206" s="79" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="207">
@@ -10088,21 +10178,21 @@
       </c>
       <c r="D207" s="70"/>
       <c r="E207" s="71" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F207" s="71" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G207" s="71" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H207" s="70"/>
       <c r="I207" s="71"/>
       <c r="J207" s="67" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K207" s="67" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L207" s="72"/>
       <c r="M207" s="72"/>
@@ -10110,7 +10200,7 @@
       <c r="O207" s="73"/>
       <c r="P207" s="73"/>
       <c r="Q207" s="74" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R207" s="78"/>
     </row>
@@ -10126,21 +10216,21 @@
       </c>
       <c r="D208" s="43"/>
       <c r="E208" s="42" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F208" s="42" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G208" s="42" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H208" s="43"/>
       <c r="I208" s="42"/>
       <c r="J208" s="39" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K208" s="49" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L208" s="66"/>
       <c r="M208" s="66"/>
@@ -10148,10 +10238,10 @@
       <c r="O208" s="57"/>
       <c r="P208" s="57"/>
       <c r="Q208" s="77" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R208" s="79" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="209">
@@ -10167,7 +10257,7 @@
       <c r="H209" s="70"/>
       <c r="I209" s="71"/>
       <c r="J209" s="67" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K209" s="72"/>
       <c r="L209" s="72"/>
@@ -10176,7 +10266,7 @@
       <c r="O209" s="73"/>
       <c r="P209" s="73"/>
       <c r="Q209" s="48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R209" s="78"/>
     </row>
@@ -10193,10 +10283,10 @@
       <c r="H210" s="43"/>
       <c r="I210" s="42"/>
       <c r="J210" s="56" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K210" s="49" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L210" s="66"/>
       <c r="M210" s="66"/>
@@ -10207,7 +10297,7 @@
         <v>26</v>
       </c>
       <c r="R210" s="79" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="211">
@@ -10223,10 +10313,10 @@
       <c r="H211" s="70"/>
       <c r="I211" s="71"/>
       <c r="J211" s="67" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K211" s="67" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L211" s="72"/>
       <c r="M211" s="72"/>
@@ -10234,10 +10324,10 @@
       <c r="O211" s="73"/>
       <c r="P211" s="73"/>
       <c r="Q211" s="74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R211" s="79" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="212">
@@ -10255,7 +10345,7 @@
       <c r="H212" s="43"/>
       <c r="I212" s="42"/>
       <c r="J212" s="39" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K212" s="66"/>
       <c r="L212" s="66"/>
@@ -10264,7 +10354,7 @@
       <c r="O212" s="57"/>
       <c r="P212" s="57"/>
       <c r="Q212" s="48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R212" s="78"/>
     </row>
@@ -10285,10 +10375,10 @@
       <c r="H213" s="70"/>
       <c r="I213" s="71"/>
       <c r="J213" s="67" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K213" s="67" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L213" s="72"/>
       <c r="M213" s="72"/>
@@ -10296,7 +10386,7 @@
       <c r="O213" s="73"/>
       <c r="P213" s="73"/>
       <c r="Q213" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R213" s="38" t="s">
         <v>23</v>
@@ -10315,10 +10405,10 @@
       <c r="H214" s="43"/>
       <c r="I214" s="42"/>
       <c r="J214" s="39" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K214" s="33" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L214" s="66"/>
       <c r="M214" s="66"/>
@@ -10326,7 +10416,7 @@
       <c r="O214" s="57"/>
       <c r="P214" s="57"/>
       <c r="Q214" s="77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R214" s="78"/>
     </row>
@@ -10347,7 +10437,7 @@
       <c r="H215" s="70"/>
       <c r="I215" s="71"/>
       <c r="J215" s="67" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K215" s="67"/>
       <c r="L215" s="72"/>
@@ -10356,7 +10446,7 @@
       <c r="O215" s="73"/>
       <c r="P215" s="73"/>
       <c r="Q215" s="74" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="R215" s="38" t="s">
         <v>23</v>
@@ -10377,7 +10467,7 @@
       <c r="H216" s="43"/>
       <c r="I216" s="42"/>
       <c r="J216" s="80" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K216" s="66"/>
       <c r="L216" s="66"/>
@@ -10388,7 +10478,9 @@
       <c r="Q216" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="R216" s="78"/>
+      <c r="R216" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="67">
@@ -10403,10 +10495,10 @@
       <c r="H217" s="70"/>
       <c r="I217" s="71"/>
       <c r="J217" s="67" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K217" s="67" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L217" s="72"/>
       <c r="M217" s="72"/>
@@ -10414,7 +10506,7 @@
       <c r="O217" s="73"/>
       <c r="P217" s="73"/>
       <c r="Q217" s="74" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="R217" s="38" t="s">
         <v>23</v>
@@ -10433,10 +10525,10 @@
       <c r="H218" s="43"/>
       <c r="I218" s="42"/>
       <c r="J218" s="39" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K218" s="39" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L218" s="66"/>
       <c r="M218" s="66"/>
@@ -10444,7 +10536,7 @@
       <c r="O218" s="57"/>
       <c r="P218" s="57"/>
       <c r="Q218" s="77" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R218" s="78"/>
     </row>
@@ -10460,31 +10552,31 @@
       </c>
       <c r="D219" s="70"/>
       <c r="E219" s="71" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F219" s="71" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G219" s="71" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H219" s="70"/>
       <c r="I219" s="71"/>
       <c r="J219" s="67" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K219" s="67" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L219" s="76" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M219" s="72"/>
       <c r="N219" s="72"/>
       <c r="O219" s="73"/>
       <c r="P219" s="73"/>
       <c r="Q219" s="74" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R219" s="38" t="s">
         <v>23</v>
@@ -10498,27 +10590,27 @@
       <c r="C220" s="41"/>
       <c r="D220" s="43"/>
       <c r="E220" s="42" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F220" s="42"/>
       <c r="G220" s="42"/>
       <c r="H220" s="43"/>
       <c r="I220" s="42"/>
       <c r="J220" s="39" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K220" s="33" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L220" s="60" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="M220" s="66"/>
       <c r="N220" s="66"/>
       <c r="O220" s="57"/>
       <c r="P220" s="57"/>
       <c r="Q220" s="77" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R220" s="78"/>
     </row>
@@ -10534,18 +10626,18 @@
       </c>
       <c r="D221" s="70"/>
       <c r="E221" s="71" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F221" s="71" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G221" s="71" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H221" s="70"/>
       <c r="I221" s="71"/>
       <c r="J221" s="67" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K221" s="72"/>
       <c r="L221" s="72"/>
@@ -10554,10 +10646,10 @@
       <c r="O221" s="73"/>
       <c r="P221" s="73"/>
       <c r="Q221" s="74" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R221" s="79" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="222">
@@ -10572,18 +10664,18 @@
       </c>
       <c r="D222" s="43"/>
       <c r="E222" s="42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F222" s="42" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G222" s="42" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H222" s="43"/>
       <c r="I222" s="42"/>
       <c r="J222" s="39" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K222" s="66"/>
       <c r="L222" s="66"/>
@@ -10592,10 +10684,10 @@
       <c r="O222" s="57"/>
       <c r="P222" s="57"/>
       <c r="Q222" s="77" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R222" s="83" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="223">
@@ -10615,13 +10707,13 @@
       <c r="H223" s="70"/>
       <c r="I223" s="71"/>
       <c r="J223" s="67" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K223" s="49" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L223" s="76" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M223" s="72"/>
       <c r="N223" s="72"/>
@@ -10631,7 +10723,7 @@
         <v>22</v>
       </c>
       <c r="R223" s="79" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="224">
@@ -10651,10 +10743,10 @@
       <c r="H224" s="43"/>
       <c r="I224" s="42"/>
       <c r="J224" s="39" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K224" s="39" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L224" s="66"/>
       <c r="M224" s="66"/>
@@ -10665,7 +10757,7 @@
         <v>22</v>
       </c>
       <c r="R224" s="79" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="225">
@@ -10685,10 +10777,10 @@
       <c r="H225" s="70"/>
       <c r="I225" s="71"/>
       <c r="J225" s="67" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K225" s="49" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L225" s="72"/>
       <c r="M225" s="72"/>
@@ -10699,7 +10791,7 @@
         <v>22</v>
       </c>
       <c r="R225" s="79" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="226">
@@ -10715,7 +10807,7 @@
       <c r="H226" s="43"/>
       <c r="I226" s="42"/>
       <c r="J226" s="39" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K226" s="66"/>
       <c r="L226" s="66"/>
@@ -10724,10 +10816,10 @@
       <c r="O226" s="57"/>
       <c r="P226" s="57"/>
       <c r="Q226" s="77" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R226" s="79" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="227">
@@ -10743,25 +10835,25 @@
       <c r="H227" s="70"/>
       <c r="I227" s="71"/>
       <c r="J227" s="67" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K227" s="67" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L227" s="76" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M227" s="72"/>
       <c r="N227" s="72"/>
       <c r="O227" s="76" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P227" s="73"/>
       <c r="Q227" s="74" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R227" s="79" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="228">
@@ -10777,20 +10869,20 @@
       <c r="H228" s="43"/>
       <c r="I228" s="42"/>
       <c r="J228" s="39" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K228" s="49" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L228" s="60" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M228" s="66"/>
       <c r="N228" s="66"/>
       <c r="O228" s="57"/>
       <c r="P228" s="57"/>
       <c r="Q228" s="77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R228" s="78"/>
     </row>
@@ -10807,10 +10899,10 @@
       <c r="H229" s="70"/>
       <c r="I229" s="71"/>
       <c r="J229" s="67" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K229" s="49" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L229" s="72"/>
       <c r="M229" s="72"/>
@@ -10818,10 +10910,10 @@
       <c r="O229" s="73"/>
       <c r="P229" s="73"/>
       <c r="Q229" s="74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R229" s="79" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="230">
@@ -10841,10 +10933,10 @@
       <c r="H230" s="43"/>
       <c r="I230" s="42"/>
       <c r="J230" s="39" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K230" s="33" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L230" s="66"/>
       <c r="M230" s="66"/>
@@ -10852,10 +10944,10 @@
       <c r="O230" s="57"/>
       <c r="P230" s="57"/>
       <c r="Q230" s="77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R230" s="79" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="231">
@@ -10875,10 +10967,10 @@
       <c r="H231" s="70"/>
       <c r="I231" s="71"/>
       <c r="J231" s="67" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K231" s="33" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L231" s="72"/>
       <c r="M231" s="72"/>
@@ -10886,10 +10978,10 @@
       <c r="O231" s="73"/>
       <c r="P231" s="73"/>
       <c r="Q231" s="74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R231" s="79" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="232">
@@ -10905,10 +10997,10 @@
       <c r="H232" s="43"/>
       <c r="I232" s="42"/>
       <c r="J232" s="39" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K232" s="33" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L232" s="66"/>
       <c r="M232" s="66"/>
@@ -10919,7 +11011,7 @@
         <v>26</v>
       </c>
       <c r="R232" s="79" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="233">
@@ -10935,10 +11027,10 @@
       <c r="H233" s="70"/>
       <c r="I233" s="71"/>
       <c r="J233" s="67" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K233" s="33" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L233" s="72"/>
       <c r="M233" s="72"/>
@@ -10946,10 +11038,10 @@
       <c r="O233" s="73"/>
       <c r="P233" s="73"/>
       <c r="Q233" s="74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R233" s="79" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="234">
@@ -10969,7 +11061,7 @@
       <c r="H234" s="43"/>
       <c r="I234" s="42"/>
       <c r="J234" s="39" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K234" s="66"/>
       <c r="L234" s="66"/>
@@ -10978,9 +11070,11 @@
       <c r="O234" s="57"/>
       <c r="P234" s="57"/>
       <c r="Q234" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="R234" s="78"/>
+        <v>54</v>
+      </c>
+      <c r="R234" s="48" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="67">
@@ -10999,7 +11093,7 @@
       <c r="H235" s="70"/>
       <c r="I235" s="71"/>
       <c r="J235" s="67" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="K235" s="67"/>
       <c r="L235" s="72"/>
@@ -11025,10 +11119,10 @@
       <c r="H236" s="43"/>
       <c r="I236" s="42"/>
       <c r="J236" s="39" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K236" s="49" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L236" s="66"/>
       <c r="M236" s="66"/>
@@ -11036,10 +11130,10 @@
       <c r="O236" s="57"/>
       <c r="P236" s="57"/>
       <c r="Q236" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R236" s="79" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="237">
@@ -11059,7 +11153,7 @@
       <c r="H237" s="70"/>
       <c r="I237" s="71"/>
       <c r="J237" s="67" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="K237" s="72"/>
       <c r="L237" s="72"/>
@@ -11068,9 +11162,11 @@
       <c r="O237" s="73"/>
       <c r="P237" s="73"/>
       <c r="Q237" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="R237" s="78"/>
+        <v>54</v>
+      </c>
+      <c r="R237" s="48" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="39">
@@ -11085,7 +11181,7 @@
       <c r="H238" s="43"/>
       <c r="I238" s="42"/>
       <c r="J238" s="39" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="K238" s="66"/>
       <c r="L238" s="66"/>
@@ -11094,9 +11190,11 @@
       <c r="O238" s="57"/>
       <c r="P238" s="57"/>
       <c r="Q238" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="R238" s="78"/>
+        <v>54</v>
+      </c>
+      <c r="R238" s="48" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="67">
@@ -11115,10 +11213,10 @@
       <c r="H239" s="70"/>
       <c r="I239" s="71"/>
       <c r="J239" s="67" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="K239" s="49" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L239" s="72"/>
       <c r="M239" s="72"/>
@@ -11126,10 +11224,10 @@
       <c r="O239" s="73"/>
       <c r="P239" s="73"/>
       <c r="Q239" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="R239" s="38" t="s">
-        <v>23</v>
+        <v>54</v>
+      </c>
+      <c r="R239" s="48" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="240">
@@ -11144,16 +11242,16 @@
       </c>
       <c r="D240" s="43"/>
       <c r="E240" s="42" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F240" s="42" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G240" s="42"/>
       <c r="H240" s="43"/>
       <c r="I240" s="42"/>
       <c r="J240" s="39" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="K240" s="84"/>
       <c r="L240" s="66"/>
@@ -11162,7 +11260,7 @@
       <c r="O240" s="57"/>
       <c r="P240" s="57"/>
       <c r="Q240" s="77" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R240" s="78"/>
     </row>
@@ -11183,7 +11281,7 @@
       <c r="H241" s="70"/>
       <c r="I241" s="71"/>
       <c r="J241" s="67" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="K241" s="84"/>
       <c r="L241" s="72"/>
@@ -11192,10 +11290,10 @@
       <c r="O241" s="73"/>
       <c r="P241" s="73"/>
       <c r="Q241" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="R241" s="38" t="s">
-        <v>23</v>
+        <v>54</v>
+      </c>
+      <c r="R241" s="48" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="242">
@@ -11211,10 +11309,10 @@
       <c r="H242" s="43"/>
       <c r="I242" s="42"/>
       <c r="J242" s="39" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K242" s="39" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L242" s="66"/>
       <c r="M242" s="66"/>
@@ -11222,9 +11320,11 @@
       <c r="O242" s="57"/>
       <c r="P242" s="57"/>
       <c r="Q242" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="R242" s="78"/>
+        <v>54</v>
+      </c>
+      <c r="R242" s="48" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="67">
@@ -11239,10 +11339,10 @@
       <c r="H243" s="70"/>
       <c r="I243" s="71"/>
       <c r="J243" s="67" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K243" s="67" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="L243" s="72"/>
       <c r="M243" s="72"/>
@@ -11250,10 +11350,10 @@
       <c r="O243" s="73"/>
       <c r="P243" s="73"/>
       <c r="Q243" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="R243" s="38" t="s">
-        <v>23</v>
+        <v>54</v>
+      </c>
+      <c r="R243" s="48" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="244">
@@ -11264,17 +11364,17 @@
       <c r="C244" s="41"/>
       <c r="D244" s="43"/>
       <c r="E244" s="42" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F244" s="42"/>
       <c r="G244" s="42"/>
       <c r="H244" s="43"/>
       <c r="I244" s="42"/>
       <c r="J244" s="39" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K244" s="39" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="L244" s="66"/>
       <c r="M244" s="66"/>
@@ -11284,7 +11384,9 @@
       <c r="Q244" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="R244" s="78"/>
+      <c r="R244" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="67">
@@ -11299,7 +11401,7 @@
       <c r="H245" s="70"/>
       <c r="I245" s="71"/>
       <c r="J245" s="67" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K245" s="72"/>
       <c r="L245" s="72"/>
@@ -11308,7 +11410,7 @@
       <c r="O245" s="73"/>
       <c r="P245" s="73"/>
       <c r="Q245" s="74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R245" s="38" t="s">
         <v>23</v>
@@ -11322,17 +11424,17 @@
       <c r="C246" s="41"/>
       <c r="D246" s="43"/>
       <c r="E246" s="42" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F246" s="42"/>
       <c r="G246" s="42"/>
       <c r="H246" s="43"/>
       <c r="I246" s="42"/>
       <c r="J246" s="39" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="K246" s="39" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L246" s="66"/>
       <c r="M246" s="66"/>
@@ -11340,7 +11442,7 @@
       <c r="O246" s="57"/>
       <c r="P246" s="57"/>
       <c r="Q246" s="77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R246" s="78"/>
     </row>
@@ -11361,10 +11463,10 @@
       <c r="H247" s="70"/>
       <c r="I247" s="71"/>
       <c r="J247" s="67" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="K247" s="56" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="L247" s="72"/>
       <c r="M247" s="72"/>
@@ -11372,10 +11474,10 @@
       <c r="O247" s="73"/>
       <c r="P247" s="73"/>
       <c r="Q247" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="R247" s="38" t="s">
-        <v>23</v>
+        <v>54</v>
+      </c>
+      <c r="R247" s="48" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="248">
@@ -11391,7 +11493,7 @@
       <c r="H248" s="43"/>
       <c r="I248" s="42"/>
       <c r="J248" s="56" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K248" s="39"/>
       <c r="L248" s="66"/>
@@ -11400,7 +11502,7 @@
       <c r="O248" s="57"/>
       <c r="P248" s="57"/>
       <c r="Q248" s="77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R248" s="78"/>
     </row>
@@ -11419,10 +11521,10 @@
       <c r="H249" s="70"/>
       <c r="I249" s="71"/>
       <c r="J249" s="67" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="K249" s="85" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L249" s="72"/>
       <c r="M249" s="72"/>
@@ -11430,7 +11532,7 @@
       <c r="O249" s="73"/>
       <c r="P249" s="73"/>
       <c r="Q249" s="74" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R249" s="38" t="s">
         <v>23</v>
@@ -11451,7 +11553,7 @@
       <c r="H250" s="43"/>
       <c r="I250" s="42"/>
       <c r="J250" s="39" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K250" s="66"/>
       <c r="L250" s="66"/>
@@ -11460,9 +11562,11 @@
       <c r="O250" s="57"/>
       <c r="P250" s="57"/>
       <c r="Q250" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="R250" s="78"/>
+        <v>54</v>
+      </c>
+      <c r="R250" s="48" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="67">
@@ -11481,7 +11585,7 @@
       <c r="H251" s="70"/>
       <c r="I251" s="71"/>
       <c r="J251" s="67" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K251" s="67"/>
       <c r="L251" s="72"/>
@@ -11490,7 +11594,7 @@
       <c r="O251" s="73"/>
       <c r="P251" s="73"/>
       <c r="Q251" s="74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R251" s="38" t="s">
         <v>23</v>
@@ -11513,10 +11617,10 @@
       <c r="H252" s="43"/>
       <c r="I252" s="42"/>
       <c r="J252" s="39" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K252" s="39" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L252" s="66"/>
       <c r="M252" s="66"/>
@@ -11524,7 +11628,7 @@
       <c r="O252" s="57"/>
       <c r="P252" s="57"/>
       <c r="Q252" s="77" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="R252" s="78"/>
     </row>
@@ -11545,7 +11649,7 @@
       <c r="H253" s="70"/>
       <c r="I253" s="71"/>
       <c r="J253" s="67" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="K253" s="72"/>
       <c r="L253" s="72"/>
@@ -11554,7 +11658,7 @@
       <c r="O253" s="73"/>
       <c r="P253" s="73"/>
       <c r="Q253" s="74" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="R253" s="38" t="s">
         <v>23</v>
@@ -11577,7 +11681,7 @@
       <c r="H254" s="43"/>
       <c r="I254" s="42"/>
       <c r="J254" s="39" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K254" s="66"/>
       <c r="L254" s="66"/>
@@ -11586,7 +11690,7 @@
       <c r="O254" s="57"/>
       <c r="P254" s="57"/>
       <c r="Q254" s="77" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="R254" s="78"/>
     </row>
@@ -11607,10 +11711,10 @@
       <c r="H255" s="70"/>
       <c r="I255" s="71"/>
       <c r="J255" s="67" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K255" s="67" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L255" s="72"/>
       <c r="M255" s="72"/>
@@ -11618,10 +11722,10 @@
       <c r="O255" s="73"/>
       <c r="P255" s="73"/>
       <c r="Q255" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="R255" s="38" t="s">
-        <v>23</v>
+        <v>54</v>
+      </c>
+      <c r="R255" s="48" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="256">
@@ -11639,10 +11743,10 @@
       <c r="H256" s="43"/>
       <c r="I256" s="42"/>
       <c r="J256" s="39" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K256" s="39" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L256" s="66"/>
       <c r="M256" s="66"/>
@@ -11650,7 +11754,7 @@
       <c r="O256" s="57"/>
       <c r="P256" s="57"/>
       <c r="Q256" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R256" s="78"/>
     </row>
@@ -11671,7 +11775,7 @@
       <c r="H257" s="70"/>
       <c r="I257" s="71"/>
       <c r="J257" s="67" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K257" s="67"/>
       <c r="L257" s="72"/>
@@ -11680,7 +11784,7 @@
       <c r="O257" s="73"/>
       <c r="P257" s="73"/>
       <c r="Q257" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R257" s="38" t="s">
         <v>23</v>
@@ -11699,10 +11803,10 @@
       <c r="H258" s="43"/>
       <c r="I258" s="42"/>
       <c r="J258" s="39" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="K258" s="33" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="L258" s="66"/>
       <c r="M258" s="66"/>
@@ -11710,10 +11814,10 @@
       <c r="O258" s="57"/>
       <c r="P258" s="57"/>
       <c r="Q258" s="77" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R258" s="79" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="259">
@@ -11729,7 +11833,7 @@
       <c r="H259" s="70"/>
       <c r="I259" s="71"/>
       <c r="J259" s="67" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="K259" s="72"/>
       <c r="L259" s="72"/>
@@ -11738,7 +11842,7 @@
       <c r="O259" s="73"/>
       <c r="P259" s="73"/>
       <c r="Q259" s="74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R259" s="78"/>
     </row>
@@ -11755,7 +11859,7 @@
       <c r="H260" s="43"/>
       <c r="I260" s="42"/>
       <c r="J260" s="39" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K260" s="66"/>
       <c r="L260" s="66"/>
@@ -11764,7 +11868,7 @@
       <c r="O260" s="57"/>
       <c r="P260" s="57"/>
       <c r="Q260" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R260" s="78"/>
     </row>
@@ -11783,10 +11887,10 @@
       <c r="H261" s="70"/>
       <c r="I261" s="71"/>
       <c r="J261" s="67" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K261" s="33" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L261" s="72"/>
       <c r="M261" s="72"/>
@@ -11794,7 +11898,7 @@
       <c r="O261" s="73"/>
       <c r="P261" s="73"/>
       <c r="Q261" s="74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R261" s="78"/>
     </row>
@@ -11813,10 +11917,10 @@
       <c r="H262" s="43"/>
       <c r="I262" s="42"/>
       <c r="J262" s="39" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K262" s="81" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="L262" s="66"/>
       <c r="M262" s="66"/>
@@ -11824,7 +11928,7 @@
       <c r="O262" s="57"/>
       <c r="P262" s="57"/>
       <c r="Q262" s="77" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R262" s="78"/>
     </row>
@@ -11843,10 +11947,10 @@
       <c r="H263" s="70"/>
       <c r="I263" s="71"/>
       <c r="J263" s="67" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="K263" s="33" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="L263" s="72"/>
       <c r="M263" s="72"/>
@@ -11854,7 +11958,7 @@
       <c r="O263" s="73"/>
       <c r="P263" s="73"/>
       <c r="Q263" s="74" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R263" s="78"/>
     </row>
@@ -11871,7 +11975,7 @@
       <c r="H264" s="43"/>
       <c r="I264" s="42"/>
       <c r="J264" s="39" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="K264" s="39"/>
       <c r="L264" s="66"/>
@@ -11880,7 +11984,7 @@
       <c r="O264" s="57"/>
       <c r="P264" s="57"/>
       <c r="Q264" s="77" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R264" s="78"/>
     </row>
@@ -11897,7 +12001,7 @@
       <c r="H265" s="43"/>
       <c r="I265" s="42"/>
       <c r="J265" s="39" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K265" s="66"/>
       <c r="L265" s="66"/>
@@ -11906,7 +12010,7 @@
       <c r="O265" s="57"/>
       <c r="P265" s="57"/>
       <c r="Q265" s="77" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R265" s="78"/>
     </row>
@@ -11923,7 +12027,7 @@
       <c r="H266" s="70"/>
       <c r="I266" s="71"/>
       <c r="J266" s="67" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K266" s="67"/>
       <c r="L266" s="72"/>
@@ -11932,7 +12036,7 @@
       <c r="O266" s="73"/>
       <c r="P266" s="73"/>
       <c r="Q266" s="74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R266" s="78"/>
     </row>
@@ -11949,10 +12053,10 @@
       <c r="H267" s="43"/>
       <c r="I267" s="42"/>
       <c r="J267" s="39" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="K267" s="39" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="L267" s="66"/>
       <c r="M267" s="66"/>
@@ -11960,7 +12064,7 @@
       <c r="O267" s="57"/>
       <c r="P267" s="57"/>
       <c r="Q267" s="77" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R267" s="78"/>
     </row>
@@ -11977,10 +12081,10 @@
       <c r="H268" s="70"/>
       <c r="I268" s="71"/>
       <c r="J268" s="67" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="K268" s="85" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L268" s="72"/>
       <c r="M268" s="72"/>
@@ -11988,7 +12092,7 @@
       <c r="O268" s="73"/>
       <c r="P268" s="73"/>
       <c r="Q268" s="74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R268" s="78"/>
     </row>
@@ -12007,10 +12111,10 @@
       <c r="H269" s="70"/>
       <c r="I269" s="71"/>
       <c r="J269" s="67" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="K269" s="67" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="L269" s="72"/>
       <c r="M269" s="72"/>
@@ -12018,7 +12122,7 @@
       <c r="O269" s="73"/>
       <c r="P269" s="73"/>
       <c r="Q269" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R269" s="78"/>
     </row>
@@ -12037,10 +12141,10 @@
       <c r="H270" s="43"/>
       <c r="I270" s="42"/>
       <c r="J270" s="39" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="K270" s="39" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L270" s="66"/>
       <c r="M270" s="66"/>
@@ -12048,7 +12152,7 @@
       <c r="O270" s="57"/>
       <c r="P270" s="57"/>
       <c r="Q270" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R270" s="78"/>
     </row>
@@ -12067,7 +12171,7 @@
       <c r="H271" s="70"/>
       <c r="I271" s="71"/>
       <c r="J271" s="67" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="K271" s="67"/>
       <c r="L271" s="72"/>
@@ -12076,7 +12180,7 @@
       <c r="O271" s="73"/>
       <c r="P271" s="73"/>
       <c r="Q271" s="74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R271" s="78"/>
     </row>
@@ -12097,10 +12201,10 @@
       <c r="H272" s="43"/>
       <c r="I272" s="42"/>
       <c r="J272" s="39" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="K272" s="60" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L272" s="66"/>
       <c r="M272" s="66"/>
@@ -12108,9 +12212,11 @@
       <c r="O272" s="57"/>
       <c r="P272" s="57"/>
       <c r="Q272" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="R272" s="78"/>
+        <v>54</v>
+      </c>
+      <c r="R272" s="48" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="67">
@@ -12129,10 +12235,10 @@
       <c r="H273" s="70"/>
       <c r="I273" s="71"/>
       <c r="J273" s="67" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K273" s="67" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L273" s="72"/>
       <c r="M273" s="72"/>
@@ -12140,7 +12246,7 @@
       <c r="O273" s="73"/>
       <c r="P273" s="73"/>
       <c r="Q273" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R273" s="78"/>
     </row>
@@ -12161,10 +12267,10 @@
       <c r="H274" s="43"/>
       <c r="I274" s="42"/>
       <c r="J274" s="39" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="K274" s="39" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L274" s="66"/>
       <c r="M274" s="66"/>
@@ -12174,7 +12280,9 @@
       <c r="Q274" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="R274" s="78"/>
+      <c r="R274" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="67">
@@ -12193,10 +12301,10 @@
       <c r="H275" s="70"/>
       <c r="I275" s="71"/>
       <c r="J275" s="67" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K275" s="67" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="L275" s="72"/>
       <c r="M275" s="72"/>
@@ -12206,7 +12314,9 @@
       <c r="Q275" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="R275" s="78"/>
+      <c r="R275" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="39">
@@ -12223,10 +12333,10 @@
       <c r="H276" s="43"/>
       <c r="I276" s="42"/>
       <c r="J276" s="39" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="K276" s="39" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="L276" s="66"/>
       <c r="M276" s="66"/>
@@ -12236,7 +12346,9 @@
       <c r="Q276" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="R276" s="78"/>
+      <c r="R276" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="67">
@@ -12255,10 +12367,10 @@
       <c r="H277" s="70"/>
       <c r="I277" s="71"/>
       <c r="J277" s="67" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K277" s="67" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="L277" s="72"/>
       <c r="M277" s="72"/>
@@ -12266,7 +12378,7 @@
       <c r="O277" s="73"/>
       <c r="P277" s="73"/>
       <c r="Q277" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R277" s="78"/>
     </row>
@@ -12285,10 +12397,10 @@
       <c r="H278" s="43"/>
       <c r="I278" s="42"/>
       <c r="J278" s="39" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K278" s="39" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L278" s="66"/>
       <c r="M278" s="66"/>
@@ -12296,7 +12408,7 @@
       <c r="O278" s="57"/>
       <c r="P278" s="57"/>
       <c r="Q278" s="77" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R278" s="78"/>
     </row>
@@ -12317,10 +12429,10 @@
       <c r="H279" s="70"/>
       <c r="I279" s="71"/>
       <c r="J279" s="67" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="K279" s="67" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="L279" s="72"/>
       <c r="M279" s="72"/>
@@ -12328,7 +12440,7 @@
       <c r="O279" s="73"/>
       <c r="P279" s="73"/>
       <c r="Q279" s="74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R279" s="78"/>
     </row>
@@ -12347,7 +12459,7 @@
       <c r="H280" s="43"/>
       <c r="I280" s="42"/>
       <c r="J280" s="39" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="K280" s="66"/>
       <c r="L280" s="66"/>
@@ -12356,7 +12468,7 @@
       <c r="O280" s="57"/>
       <c r="P280" s="57"/>
       <c r="Q280" s="77" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R280" s="78"/>
     </row>
@@ -12377,10 +12489,10 @@
       <c r="H281" s="70"/>
       <c r="I281" s="71"/>
       <c r="J281" s="67" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K281" s="67" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="L281" s="72"/>
       <c r="M281" s="72"/>
@@ -12407,16 +12519,18 @@
       <c r="H282" s="43"/>
       <c r="I282" s="42"/>
       <c r="J282" s="39" t="s">
-        <v>608</v>
-      </c>
-      <c r="K282" s="66"/>
+        <v>610</v>
+      </c>
+      <c r="K282" s="39" t="s">
+        <v>611</v>
+      </c>
       <c r="L282" s="66"/>
       <c r="M282" s="66"/>
       <c r="N282" s="66"/>
       <c r="O282" s="57"/>
       <c r="P282" s="57"/>
       <c r="Q282" s="77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R282" s="78"/>
     </row>
@@ -12437,10 +12551,10 @@
       <c r="H283" s="70"/>
       <c r="I283" s="71"/>
       <c r="J283" s="67" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="K283" s="67" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="L283" s="72"/>
       <c r="M283" s="72"/>
@@ -12448,7 +12562,7 @@
       <c r="O283" s="73"/>
       <c r="P283" s="73"/>
       <c r="Q283" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R283" s="78"/>
     </row>
@@ -12469,10 +12583,10 @@
       <c r="H284" s="43"/>
       <c r="I284" s="42"/>
       <c r="J284" s="39" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="K284" s="39" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="L284" s="66"/>
       <c r="M284" s="66"/>
@@ -12480,7 +12594,7 @@
       <c r="O284" s="57"/>
       <c r="P284" s="57"/>
       <c r="Q284" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R284" s="78"/>
     </row>
@@ -12501,10 +12615,10 @@
       <c r="H285" s="70"/>
       <c r="I285" s="71"/>
       <c r="J285" s="67" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="K285" s="67" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="L285" s="72"/>
       <c r="M285" s="72"/>
@@ -12512,7 +12626,7 @@
       <c r="O285" s="73"/>
       <c r="P285" s="73"/>
       <c r="Q285" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R285" s="78"/>
     </row>
@@ -12529,20 +12643,20 @@
       <c r="H286" s="43"/>
       <c r="I286" s="42"/>
       <c r="J286" s="39" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K286" s="39" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="L286" s="60" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="M286" s="66"/>
       <c r="N286" s="66"/>
       <c r="O286" s="57"/>
       <c r="P286" s="57"/>
       <c r="Q286" s="77" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R286" s="78"/>
     </row>
@@ -12559,10 +12673,10 @@
       <c r="H287" s="70"/>
       <c r="I287" s="71"/>
       <c r="J287" s="67" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="K287" s="67" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="L287" s="67"/>
       <c r="M287" s="72"/>
@@ -12570,7 +12684,7 @@
       <c r="O287" s="73"/>
       <c r="P287" s="73"/>
       <c r="Q287" s="74" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R287" s="78"/>
     </row>
@@ -12587,10 +12701,10 @@
       <c r="H288" s="43"/>
       <c r="I288" s="42"/>
       <c r="J288" s="86" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="K288" s="39" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="L288" s="66"/>
       <c r="M288" s="66"/>
@@ -12600,7 +12714,9 @@
       <c r="Q288" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="R288" s="78"/>
+      <c r="R288" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="67">
@@ -12615,10 +12731,10 @@
       <c r="H289" s="70"/>
       <c r="I289" s="71"/>
       <c r="J289" s="67" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="K289" s="67" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="L289" s="72"/>
       <c r="M289" s="72"/>
@@ -12626,7 +12742,7 @@
       <c r="O289" s="73"/>
       <c r="P289" s="73"/>
       <c r="Q289" s="74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R289" s="78"/>
     </row>
@@ -12643,10 +12759,10 @@
       <c r="H290" s="43"/>
       <c r="I290" s="42"/>
       <c r="J290" s="39" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="K290" s="39" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="L290" s="66"/>
       <c r="M290" s="66"/>
@@ -12654,7 +12770,7 @@
       <c r="O290" s="57"/>
       <c r="P290" s="57"/>
       <c r="Q290" s="77" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R290" s="78"/>
     </row>
@@ -12671,10 +12787,10 @@
       <c r="H291" s="70"/>
       <c r="I291" s="71"/>
       <c r="J291" s="67" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K291" s="67" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L291" s="72"/>
       <c r="M291" s="72"/>
@@ -12682,7 +12798,7 @@
       <c r="O291" s="73"/>
       <c r="P291" s="73"/>
       <c r="Q291" s="74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R291" s="78"/>
     </row>
@@ -12699,7 +12815,7 @@
       <c r="H292" s="43"/>
       <c r="I292" s="42"/>
       <c r="J292" s="39" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="K292" s="66"/>
       <c r="L292" s="66"/>
@@ -12708,7 +12824,7 @@
       <c r="O292" s="57"/>
       <c r="P292" s="57"/>
       <c r="Q292" s="77" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R292" s="78"/>
     </row>
@@ -12725,7 +12841,7 @@
       <c r="H293" s="70"/>
       <c r="I293" s="71"/>
       <c r="J293" s="67" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K293" s="72"/>
       <c r="L293" s="72"/>
@@ -12734,7 +12850,7 @@
       <c r="O293" s="73"/>
       <c r="P293" s="73"/>
       <c r="Q293" s="74" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R293" s="78"/>
     </row>
@@ -12751,7 +12867,7 @@
       <c r="H294" s="43"/>
       <c r="I294" s="42"/>
       <c r="J294" s="39" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="K294" s="66"/>
       <c r="L294" s="66"/>
@@ -12762,7 +12878,9 @@
       <c r="Q294" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="R294" s="78"/>
+      <c r="R294" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="67">
@@ -12777,10 +12895,10 @@
       <c r="H295" s="70"/>
       <c r="I295" s="71"/>
       <c r="J295" s="67" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="K295" s="56" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="L295" s="72"/>
       <c r="M295" s="72"/>
@@ -12788,7 +12906,7 @@
       <c r="O295" s="73"/>
       <c r="P295" s="73"/>
       <c r="Q295" s="74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R295" s="78"/>
     </row>
@@ -12805,10 +12923,10 @@
       <c r="H296" s="43"/>
       <c r="I296" s="42"/>
       <c r="J296" s="39" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="K296" s="56" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="L296" s="66"/>
       <c r="M296" s="66"/>
@@ -12816,7 +12934,7 @@
       <c r="O296" s="57"/>
       <c r="P296" s="57"/>
       <c r="Q296" s="77" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R296" s="78"/>
     </row>
@@ -12833,10 +12951,10 @@
       <c r="H297" s="70"/>
       <c r="I297" s="71"/>
       <c r="J297" s="67" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="K297" s="67" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="L297" s="72"/>
       <c r="M297" s="72"/>
@@ -12844,7 +12962,7 @@
       <c r="O297" s="73"/>
       <c r="P297" s="73"/>
       <c r="Q297" s="74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R297" s="78"/>
     </row>
@@ -12861,10 +12979,10 @@
       <c r="H298" s="43"/>
       <c r="I298" s="42"/>
       <c r="J298" s="39" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="K298" s="49" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="L298" s="66"/>
       <c r="M298" s="66"/>
@@ -12872,7 +12990,7 @@
       <c r="O298" s="57"/>
       <c r="P298" s="57"/>
       <c r="Q298" s="77" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R298" s="78"/>
     </row>
@@ -12889,10 +13007,10 @@
       <c r="H299" s="70"/>
       <c r="I299" s="71"/>
       <c r="J299" s="67" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="K299" s="56" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="L299" s="72"/>
       <c r="M299" s="72"/>
@@ -12900,7 +13018,7 @@
       <c r="O299" s="73"/>
       <c r="P299" s="73"/>
       <c r="Q299" s="74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R299" s="78"/>
     </row>
@@ -12917,10 +13035,10 @@
       <c r="H300" s="43"/>
       <c r="I300" s="42"/>
       <c r="J300" s="39" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="K300" s="39" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="L300" s="66"/>
       <c r="M300" s="66"/>
@@ -12928,7 +13046,7 @@
       <c r="O300" s="57"/>
       <c r="P300" s="57"/>
       <c r="Q300" s="77" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R300" s="78"/>
     </row>
@@ -12945,10 +13063,10 @@
       <c r="H301" s="70"/>
       <c r="I301" s="71"/>
       <c r="J301" s="67" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="K301" s="56" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="L301" s="72"/>
       <c r="M301" s="72"/>
@@ -12958,7 +13076,9 @@
       <c r="Q301" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="R301" s="78"/>
+      <c r="R301" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="39">
@@ -12973,10 +13093,10 @@
       <c r="H302" s="43"/>
       <c r="I302" s="42"/>
       <c r="J302" s="39" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="K302" s="39" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="L302" s="66"/>
       <c r="M302" s="66"/>
@@ -12984,7 +13104,7 @@
       <c r="O302" s="57"/>
       <c r="P302" s="57"/>
       <c r="Q302" s="77" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R302" s="78"/>
     </row>
@@ -13001,10 +13121,10 @@
       <c r="H303" s="70"/>
       <c r="I303" s="71"/>
       <c r="J303" s="67" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="K303" s="67" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="L303" s="72"/>
       <c r="M303" s="72"/>
@@ -13012,7 +13132,7 @@
       <c r="O303" s="73"/>
       <c r="P303" s="73"/>
       <c r="Q303" s="74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R303" s="78"/>
     </row>
@@ -13029,10 +13149,10 @@
       <c r="H304" s="43"/>
       <c r="I304" s="42"/>
       <c r="J304" s="39" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="K304" s="39" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="L304" s="66"/>
       <c r="M304" s="66"/>
@@ -13040,7 +13160,7 @@
       <c r="O304" s="57"/>
       <c r="P304" s="57"/>
       <c r="Q304" s="77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R304" s="78"/>
     </row>
@@ -13057,7 +13177,7 @@
       <c r="H305" s="70"/>
       <c r="I305" s="71"/>
       <c r="J305" s="67" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="K305" s="72"/>
       <c r="L305" s="72"/>
@@ -13066,7 +13186,7 @@
       <c r="O305" s="73"/>
       <c r="P305" s="73"/>
       <c r="Q305" s="74" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R305" s="78"/>
     </row>
@@ -13083,10 +13203,10 @@
       <c r="H306" s="43"/>
       <c r="I306" s="42"/>
       <c r="J306" s="39" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="K306" s="39" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="L306" s="66"/>
       <c r="M306" s="66"/>
@@ -13094,7 +13214,7 @@
       <c r="O306" s="57"/>
       <c r="P306" s="57"/>
       <c r="Q306" s="77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R306" s="78"/>
     </row>
@@ -13111,7 +13231,7 @@
       <c r="H307" s="70"/>
       <c r="I307" s="71"/>
       <c r="J307" s="67" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="K307" s="67"/>
       <c r="L307" s="72"/>
@@ -13120,7 +13240,7 @@
       <c r="O307" s="73"/>
       <c r="P307" s="73"/>
       <c r="Q307" s="74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R307" s="78"/>
     </row>
@@ -13137,10 +13257,10 @@
       <c r="H308" s="43"/>
       <c r="I308" s="42"/>
       <c r="J308" s="39" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="K308" s="39" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="L308" s="66"/>
       <c r="M308" s="66"/>
@@ -13150,7 +13270,9 @@
       <c r="Q308" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="R308" s="78"/>
+      <c r="R308" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="67">
@@ -13169,10 +13291,10 @@
       <c r="H309" s="70"/>
       <c r="I309" s="71"/>
       <c r="J309" s="67" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="K309" s="67" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="L309" s="72"/>
       <c r="M309" s="72"/>
@@ -13180,7 +13302,7 @@
       <c r="O309" s="73"/>
       <c r="P309" s="73"/>
       <c r="Q309" s="74" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R309" s="78"/>
     </row>
@@ -13199,10 +13321,10 @@
       <c r="H310" s="43"/>
       <c r="I310" s="42"/>
       <c r="J310" s="39" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="K310" s="39" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="L310" s="66"/>
       <c r="M310" s="66"/>
@@ -13210,7 +13332,7 @@
       <c r="O310" s="57"/>
       <c r="P310" s="57"/>
       <c r="Q310" s="77" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R310" s="78"/>
     </row>
@@ -13227,7 +13349,7 @@
       <c r="H311" s="70"/>
       <c r="I311" s="71"/>
       <c r="J311" s="67" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="K311" s="72"/>
       <c r="L311" s="72"/>
@@ -13236,7 +13358,7 @@
       <c r="O311" s="73"/>
       <c r="P311" s="73"/>
       <c r="Q311" s="74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R311" s="78"/>
     </row>
@@ -13253,10 +13375,10 @@
       <c r="H312" s="43"/>
       <c r="I312" s="42"/>
       <c r="J312" s="86" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="K312" s="39" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="L312" s="66"/>
       <c r="M312" s="66"/>
@@ -13264,7 +13386,7 @@
       <c r="O312" s="57"/>
       <c r="P312" s="57"/>
       <c r="Q312" s="77" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R312" s="78"/>
     </row>
@@ -13281,7 +13403,7 @@
       <c r="H313" s="70"/>
       <c r="I313" s="71"/>
       <c r="J313" s="67" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="K313" s="72"/>
       <c r="L313" s="72"/>
@@ -13290,7 +13412,7 @@
       <c r="O313" s="73"/>
       <c r="P313" s="73"/>
       <c r="Q313" s="74" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R313" s="78"/>
     </row>
@@ -13311,10 +13433,10 @@
       <c r="H314" s="43"/>
       <c r="I314" s="42"/>
       <c r="J314" s="39" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="K314" s="39" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="L314" s="66"/>
       <c r="M314" s="66"/>
@@ -13322,7 +13444,7 @@
       <c r="O314" s="57"/>
       <c r="P314" s="57"/>
       <c r="Q314" s="77" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R314" s="78"/>
     </row>
@@ -13339,10 +13461,10 @@
       <c r="H315" s="70"/>
       <c r="I315" s="71"/>
       <c r="J315" s="67" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="K315" s="67" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="L315" s="72"/>
       <c r="M315" s="72"/>
@@ -13350,7 +13472,7 @@
       <c r="O315" s="73"/>
       <c r="P315" s="73"/>
       <c r="Q315" s="74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R315" s="78"/>
     </row>
@@ -13371,10 +13493,10 @@
       <c r="H316" s="43"/>
       <c r="I316" s="42"/>
       <c r="J316" s="39" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="K316" s="39" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="L316" s="66"/>
       <c r="M316" s="66"/>
@@ -13382,7 +13504,7 @@
       <c r="O316" s="57"/>
       <c r="P316" s="57"/>
       <c r="Q316" s="77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R316" s="78"/>
     </row>
@@ -13399,10 +13521,10 @@
       <c r="H317" s="70"/>
       <c r="I317" s="71"/>
       <c r="J317" s="67" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="K317" s="67" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="L317" s="72"/>
       <c r="M317" s="72"/>
@@ -13410,7 +13532,7 @@
       <c r="O317" s="73"/>
       <c r="P317" s="73"/>
       <c r="Q317" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R317" s="78"/>
     </row>
@@ -13427,10 +13549,10 @@
       <c r="H318" s="43"/>
       <c r="I318" s="42"/>
       <c r="J318" s="39" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K318" s="39" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="L318" s="66"/>
       <c r="M318" s="66"/>
@@ -13440,7 +13562,9 @@
       <c r="Q318" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="R318" s="78"/>
+      <c r="R318" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="67">
@@ -13455,7 +13579,7 @@
       <c r="H319" s="70"/>
       <c r="I319" s="71"/>
       <c r="J319" s="67" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="K319" s="67"/>
       <c r="L319" s="72"/>
@@ -13464,7 +13588,7 @@
       <c r="O319" s="73"/>
       <c r="P319" s="73"/>
       <c r="Q319" s="74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R319" s="78"/>
     </row>
@@ -13483,10 +13607,10 @@
       <c r="H320" s="43"/>
       <c r="I320" s="42"/>
       <c r="J320" s="39" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="K320" s="39" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="L320" s="66"/>
       <c r="M320" s="66"/>
@@ -13494,7 +13618,7 @@
       <c r="O320" s="57"/>
       <c r="P320" s="57"/>
       <c r="Q320" s="77" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R320" s="78"/>
     </row>
@@ -13511,10 +13635,10 @@
       <c r="H321" s="70"/>
       <c r="I321" s="71"/>
       <c r="J321" s="67" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="K321" s="67" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="L321" s="72"/>
       <c r="M321" s="72"/>
@@ -13539,10 +13663,10 @@
       <c r="H322" s="43"/>
       <c r="I322" s="42"/>
       <c r="J322" s="39" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="K322" s="39" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="L322" s="66"/>
       <c r="M322" s="66"/>
@@ -13550,7 +13674,7 @@
       <c r="O322" s="57"/>
       <c r="P322" s="57"/>
       <c r="Q322" s="77" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R322" s="78"/>
     </row>
@@ -13569,10 +13693,10 @@
       <c r="H323" s="70"/>
       <c r="I323" s="71"/>
       <c r="J323" s="67" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="K323" s="67" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="L323" s="72"/>
       <c r="M323" s="72"/>
@@ -13601,10 +13725,10 @@
       <c r="H324" s="43"/>
       <c r="I324" s="42"/>
       <c r="J324" s="39" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="K324" s="39" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="L324" s="66"/>
       <c r="M324" s="66"/>
@@ -13612,7 +13736,7 @@
       <c r="O324" s="57"/>
       <c r="P324" s="57"/>
       <c r="Q324" s="77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R324" s="78"/>
     </row>
@@ -13633,10 +13757,10 @@
       <c r="H325" s="70"/>
       <c r="I325" s="71"/>
       <c r="J325" s="67" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="K325" s="49" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="L325" s="72"/>
       <c r="M325" s="72"/>
@@ -13644,7 +13768,7 @@
       <c r="O325" s="73"/>
       <c r="P325" s="73"/>
       <c r="Q325" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R325" s="78"/>
     </row>
@@ -13665,10 +13789,10 @@
       <c r="H326" s="43"/>
       <c r="I326" s="42"/>
       <c r="J326" s="39" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="K326" s="49" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="L326" s="66"/>
       <c r="M326" s="66"/>
@@ -13676,7 +13800,7 @@
       <c r="O326" s="57"/>
       <c r="P326" s="57"/>
       <c r="Q326" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R326" s="78"/>
     </row>
@@ -13693,10 +13817,10 @@
       <c r="H327" s="70"/>
       <c r="I327" s="71"/>
       <c r="J327" s="67" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="K327" s="67" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="L327" s="72"/>
       <c r="M327" s="72"/>
@@ -13704,7 +13828,7 @@
       <c r="O327" s="73"/>
       <c r="P327" s="73"/>
       <c r="Q327" s="74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R327" s="78"/>
     </row>
@@ -13721,10 +13845,10 @@
       <c r="H328" s="43"/>
       <c r="I328" s="42"/>
       <c r="J328" s="39" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="K328" s="56" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="L328" s="66"/>
       <c r="M328" s="66"/>
@@ -13734,7 +13858,9 @@
       <c r="Q328" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="R328" s="78"/>
+      <c r="R328" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="67">
@@ -13749,10 +13875,10 @@
       <c r="H329" s="70"/>
       <c r="I329" s="71"/>
       <c r="J329" s="67" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="K329" s="67" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="L329" s="72"/>
       <c r="M329" s="72"/>
@@ -13760,7 +13886,7 @@
       <c r="O329" s="73"/>
       <c r="P329" s="73"/>
       <c r="Q329" s="74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R329" s="78"/>
     </row>
@@ -13777,10 +13903,10 @@
       <c r="H330" s="43"/>
       <c r="I330" s="42"/>
       <c r="J330" s="39" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="K330" s="56" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="L330" s="66"/>
       <c r="M330" s="66"/>
@@ -13788,7 +13914,7 @@
       <c r="O330" s="57"/>
       <c r="P330" s="57"/>
       <c r="Q330" s="77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R330" s="78"/>
     </row>
@@ -13805,10 +13931,10 @@
       <c r="H331" s="70"/>
       <c r="I331" s="71"/>
       <c r="J331" s="87" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="K331" s="49" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="L331" s="72"/>
       <c r="M331" s="72"/>
@@ -13816,7 +13942,7 @@
       <c r="O331" s="73"/>
       <c r="P331" s="73"/>
       <c r="Q331" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R331" s="78"/>
     </row>
@@ -13837,10 +13963,10 @@
       <c r="H332" s="43"/>
       <c r="I332" s="42"/>
       <c r="J332" s="39" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="K332" s="39" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="L332" s="66"/>
       <c r="M332" s="66"/>
@@ -13848,7 +13974,7 @@
       <c r="O332" s="57"/>
       <c r="P332" s="57"/>
       <c r="Q332" s="77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R332" s="78"/>
     </row>
@@ -13869,10 +13995,10 @@
       <c r="H333" s="70"/>
       <c r="I333" s="71"/>
       <c r="J333" s="67" t="s">
-        <v>319</v>
+        <v>705</v>
       </c>
       <c r="K333" s="67" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="L333" s="72"/>
       <c r="M333" s="72"/>
@@ -13880,7 +14006,7 @@
       <c r="O333" s="73"/>
       <c r="P333" s="73"/>
       <c r="Q333" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R333" s="78"/>
     </row>
@@ -13901,10 +14027,10 @@
       <c r="H334" s="43"/>
       <c r="I334" s="42"/>
       <c r="J334" s="39" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="K334" s="39" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="L334" s="66"/>
       <c r="M334" s="66"/>
@@ -13912,7 +14038,7 @@
       <c r="O334" s="57"/>
       <c r="P334" s="57"/>
       <c r="Q334" s="77" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="R334" s="78"/>
     </row>
@@ -13931,10 +14057,10 @@
       <c r="H335" s="70"/>
       <c r="I335" s="71"/>
       <c r="J335" s="67" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="K335" s="67" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="L335" s="72"/>
       <c r="M335" s="72"/>
@@ -13942,7 +14068,7 @@
       <c r="O335" s="73"/>
       <c r="P335" s="73"/>
       <c r="Q335" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R335" s="78"/>
     </row>
@@ -13961,10 +14087,10 @@
       <c r="H336" s="43"/>
       <c r="I336" s="42"/>
       <c r="J336" s="39" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="K336" s="39" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="L336" s="66"/>
       <c r="M336" s="66"/>
@@ -13972,7 +14098,7 @@
       <c r="O336" s="57"/>
       <c r="P336" s="57"/>
       <c r="Q336" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R336" s="78"/>
     </row>
@@ -13993,10 +14119,10 @@
       <c r="H337" s="70"/>
       <c r="I337" s="71"/>
       <c r="J337" s="67" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="K337" s="67" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="L337" s="72"/>
       <c r="M337" s="72"/>
@@ -14004,7 +14130,7 @@
       <c r="O337" s="73"/>
       <c r="P337" s="73"/>
       <c r="Q337" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R337" s="78"/>
     </row>
@@ -14021,10 +14147,10 @@
       <c r="H338" s="43"/>
       <c r="I338" s="42"/>
       <c r="J338" s="39" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="K338" s="39" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="L338" s="66"/>
       <c r="M338" s="66"/>
@@ -14032,7 +14158,7 @@
       <c r="O338" s="57"/>
       <c r="P338" s="57"/>
       <c r="Q338" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R338" s="78"/>
     </row>
@@ -14049,10 +14175,10 @@
       <c r="H339" s="70"/>
       <c r="I339" s="71"/>
       <c r="J339" s="67" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="K339" s="67" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="L339" s="72"/>
       <c r="M339" s="72"/>
@@ -14060,7 +14186,7 @@
       <c r="O339" s="73"/>
       <c r="P339" s="73"/>
       <c r="Q339" s="74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R339" s="78"/>
     </row>
@@ -14074,19 +14200,19 @@
       <c r="C340" s="41"/>
       <c r="D340" s="43"/>
       <c r="E340" s="42" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="F340" s="42" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G340" s="42"/>
       <c r="H340" s="43"/>
       <c r="I340" s="42"/>
       <c r="J340" s="39" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="K340" s="39" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="L340" s="66"/>
       <c r="M340" s="66"/>
@@ -14096,7 +14222,9 @@
       <c r="Q340" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="R340" s="78"/>
+      <c r="R340" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="67">
@@ -14108,17 +14236,17 @@
       <c r="C341" s="69"/>
       <c r="D341" s="70"/>
       <c r="E341" s="71" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F341" s="71"/>
       <c r="G341" s="71"/>
       <c r="H341" s="70"/>
       <c r="I341" s="71"/>
       <c r="J341" s="67" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="K341" s="67" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="L341" s="72"/>
       <c r="M341" s="72"/>
@@ -14128,7 +14256,9 @@
       <c r="Q341" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="R341" s="78"/>
+      <c r="R341" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="39">
@@ -14140,17 +14270,17 @@
       <c r="C342" s="41"/>
       <c r="D342" s="43"/>
       <c r="E342" s="42" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="F342" s="42"/>
       <c r="G342" s="42"/>
       <c r="H342" s="43"/>
       <c r="I342" s="42"/>
       <c r="J342" s="39" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="K342" s="39" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="L342" s="66"/>
       <c r="M342" s="66"/>
@@ -14175,10 +14305,10 @@
       <c r="H343" s="70"/>
       <c r="I343" s="71"/>
       <c r="J343" s="67" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="K343" s="67" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="L343" s="72"/>
       <c r="M343" s="72"/>
@@ -14186,7 +14316,7 @@
       <c r="O343" s="73"/>
       <c r="P343" s="73"/>
       <c r="Q343" s="74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R343" s="78"/>
     </row>
@@ -14203,10 +14333,10 @@
       <c r="H344" s="43"/>
       <c r="I344" s="42"/>
       <c r="J344" s="39" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="K344" s="39" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="L344" s="66"/>
       <c r="M344" s="66"/>
@@ -14214,7 +14344,7 @@
       <c r="O344" s="57"/>
       <c r="P344" s="57"/>
       <c r="Q344" s="77" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R344" s="78"/>
     </row>
@@ -14235,10 +14365,10 @@
       <c r="H345" s="70"/>
       <c r="I345" s="71"/>
       <c r="J345" s="67" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="K345" s="67" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="L345" s="72"/>
       <c r="M345" s="72"/>
@@ -14248,7 +14378,9 @@
       <c r="Q345" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="R345" s="78"/>
+      <c r="R345" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="39">
@@ -14267,10 +14399,10 @@
       <c r="H346" s="43"/>
       <c r="I346" s="42"/>
       <c r="J346" s="56" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="K346" s="88" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="L346" s="66"/>
       <c r="M346" s="66"/>
@@ -14278,9 +14410,11 @@
       <c r="O346" s="57"/>
       <c r="P346" s="57"/>
       <c r="Q346" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="R346" s="78"/>
+        <v>54</v>
+      </c>
+      <c r="R346" s="48" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="67">
@@ -14295,10 +14429,10 @@
       <c r="H347" s="70"/>
       <c r="I347" s="71"/>
       <c r="J347" s="89" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="K347" s="90" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="L347" s="72"/>
       <c r="M347" s="72"/>
@@ -14308,7 +14442,9 @@
       <c r="Q347" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="R347" s="78"/>
+      <c r="R347" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="39">
@@ -14317,16 +14453,18 @@
       <c r="B348" s="40"/>
       <c r="C348" s="41"/>
       <c r="D348" s="43"/>
-      <c r="E348" s="42"/>
+      <c r="E348" s="42" t="s">
+        <v>478</v>
+      </c>
       <c r="F348" s="42"/>
       <c r="G348" s="42"/>
       <c r="H348" s="43"/>
       <c r="I348" s="42"/>
       <c r="J348" s="39" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="K348" s="91" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="L348" s="66"/>
       <c r="M348" s="66"/>
@@ -14334,27 +14472,37 @@
       <c r="O348" s="57"/>
       <c r="P348" s="57"/>
       <c r="Q348" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="R348" s="78"/>
+        <v>54</v>
+      </c>
+      <c r="R348" s="48" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="67">
         <v>1971.0</v>
       </c>
-      <c r="B349" s="68"/>
-      <c r="C349" s="69"/>
+      <c r="B349" s="68">
+        <v>2.0</v>
+      </c>
+      <c r="C349" s="69">
+        <v>1.0</v>
+      </c>
       <c r="D349" s="70"/>
-      <c r="E349" s="71"/>
-      <c r="F349" s="71"/>
+      <c r="E349" s="71" t="s">
+        <v>739</v>
+      </c>
+      <c r="F349" s="71" t="s">
+        <v>740</v>
+      </c>
       <c r="G349" s="71"/>
       <c r="H349" s="70"/>
       <c r="I349" s="71"/>
       <c r="J349" s="67" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="K349" s="67" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="L349" s="72"/>
       <c r="M349" s="72"/>
@@ -14362,9 +14510,11 @@
       <c r="O349" s="73"/>
       <c r="P349" s="73"/>
       <c r="Q349" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="R349" s="78"/>
+        <v>54</v>
+      </c>
+      <c r="R349" s="48" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="39">
@@ -14379,10 +14529,10 @@
       <c r="H350" s="43"/>
       <c r="I350" s="42"/>
       <c r="J350" s="39" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="K350" s="39" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="L350" s="66"/>
       <c r="M350" s="66"/>
@@ -14390,7 +14540,7 @@
       <c r="O350" s="57"/>
       <c r="P350" s="57"/>
       <c r="Q350" s="77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R350" s="78"/>
     </row>
@@ -14411,7 +14561,7 @@
       <c r="H351" s="70"/>
       <c r="I351" s="71"/>
       <c r="J351" s="67" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="K351" s="67"/>
       <c r="L351" s="72"/>
@@ -14420,9 +14570,11 @@
       <c r="O351" s="73"/>
       <c r="P351" s="73"/>
       <c r="Q351" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="R351" s="78"/>
+        <v>54</v>
+      </c>
+      <c r="R351" s="48" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="39">
@@ -14437,7 +14589,7 @@
       <c r="H352" s="43"/>
       <c r="I352" s="42"/>
       <c r="J352" s="39" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="K352" s="66"/>
       <c r="L352" s="66"/>
@@ -14446,7 +14598,7 @@
       <c r="O352" s="57"/>
       <c r="P352" s="57"/>
       <c r="Q352" s="77" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="R352" s="78"/>
     </row>
@@ -14463,10 +14615,10 @@
       <c r="H353" s="70"/>
       <c r="I353" s="71"/>
       <c r="J353" s="67" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="K353" s="67" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="L353" s="72"/>
       <c r="M353" s="72"/>
@@ -14474,9 +14626,11 @@
       <c r="O353" s="73"/>
       <c r="P353" s="73"/>
       <c r="Q353" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="R353" s="78"/>
+        <v>54</v>
+      </c>
+      <c r="R353" s="48" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="39">
@@ -14491,10 +14645,10 @@
       <c r="H354" s="43"/>
       <c r="I354" s="42"/>
       <c r="J354" s="39" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="K354" s="39" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="L354" s="66"/>
       <c r="M354" s="66"/>
@@ -14502,52 +14656,86 @@
       <c r="O354" s="57"/>
       <c r="P354" s="57"/>
       <c r="Q354" s="77" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="R354" s="78"/>
     </row>
     <row r="355">
-      <c r="A355" s="67"/>
-      <c r="B355" s="68"/>
-      <c r="C355" s="69"/>
+      <c r="A355" s="67">
+        <v>1971.0</v>
+      </c>
+      <c r="B355" s="68">
+        <v>11.0</v>
+      </c>
+      <c r="C355" s="69">
+        <v>3.0</v>
+      </c>
       <c r="D355" s="70"/>
-      <c r="E355" s="71"/>
-      <c r="F355" s="71"/>
-      <c r="G355" s="71"/>
+      <c r="E355" s="71" t="s">
+        <v>739</v>
+      </c>
+      <c r="F355" s="71" t="s">
+        <v>740</v>
+      </c>
+      <c r="G355" s="71" t="s">
+        <v>538</v>
+      </c>
       <c r="H355" s="70"/>
       <c r="I355" s="71"/>
-      <c r="J355" s="72"/>
+      <c r="J355" s="67" t="s">
+        <v>752</v>
+      </c>
       <c r="K355" s="72"/>
       <c r="L355" s="72"/>
       <c r="M355" s="72"/>
       <c r="N355" s="72"/>
       <c r="O355" s="73"/>
       <c r="P355" s="73"/>
-      <c r="Q355" s="75"/>
+      <c r="Q355" s="74" t="s">
+        <v>747</v>
+      </c>
       <c r="R355" s="78"/>
     </row>
     <row r="356">
-      <c r="A356" s="39"/>
-      <c r="B356" s="40"/>
-      <c r="C356" s="41"/>
+      <c r="A356" s="39">
+        <v>1973.0</v>
+      </c>
+      <c r="B356" s="40">
+        <v>9.0</v>
+      </c>
+      <c r="C356" s="41">
+        <v>11.0</v>
+      </c>
       <c r="D356" s="43"/>
-      <c r="E356" s="42"/>
-      <c r="F356" s="42"/>
-      <c r="G356" s="42"/>
+      <c r="E356" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F356" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="G356" s="42" t="s">
+        <v>538</v>
+      </c>
       <c r="H356" s="43"/>
       <c r="I356" s="42"/>
-      <c r="J356" s="66"/>
+      <c r="J356" s="39" t="s">
+        <v>753</v>
+      </c>
       <c r="K356" s="66"/>
       <c r="L356" s="66"/>
       <c r="M356" s="66"/>
       <c r="N356" s="66"/>
       <c r="O356" s="57"/>
       <c r="P356" s="57"/>
-      <c r="Q356" s="92"/>
+      <c r="Q356" s="77" t="s">
+        <v>747</v>
+      </c>
       <c r="R356" s="78"/>
     </row>
     <row r="357">
-      <c r="A357" s="67"/>
+      <c r="A357" s="67">
+        <v>1975.0</v>
+      </c>
       <c r="B357" s="68"/>
       <c r="C357" s="69"/>
       <c r="D357" s="70"/>
@@ -14556,98 +14744,164 @@
       <c r="G357" s="71"/>
       <c r="H357" s="70"/>
       <c r="I357" s="71"/>
-      <c r="J357" s="72"/>
+      <c r="J357" s="67" t="s">
+        <v>754</v>
+      </c>
       <c r="K357" s="72"/>
       <c r="L357" s="72"/>
       <c r="M357" s="72"/>
       <c r="N357" s="72"/>
       <c r="O357" s="73"/>
       <c r="P357" s="73"/>
-      <c r="Q357" s="75"/>
+      <c r="Q357" s="74" t="s">
+        <v>747</v>
+      </c>
       <c r="R357" s="78"/>
     </row>
     <row r="358">
-      <c r="A358" s="39"/>
-      <c r="B358" s="40"/>
-      <c r="C358" s="41"/>
+      <c r="A358" s="39">
+        <v>1981.0</v>
+      </c>
+      <c r="B358" s="40">
+        <v>9.0</v>
+      </c>
+      <c r="C358" s="41">
+        <v>1.0</v>
+      </c>
       <c r="D358" s="43"/>
       <c r="E358" s="42"/>
       <c r="F358" s="42"/>
       <c r="G358" s="42"/>
       <c r="H358" s="43"/>
       <c r="I358" s="42"/>
-      <c r="J358" s="66"/>
-      <c r="K358" s="66"/>
+      <c r="J358" s="39" t="s">
+        <v>755</v>
+      </c>
+      <c r="K358" s="39" t="s">
+        <v>756</v>
+      </c>
       <c r="L358" s="66"/>
       <c r="M358" s="66"/>
       <c r="N358" s="66"/>
       <c r="O358" s="57"/>
       <c r="P358" s="57"/>
-      <c r="Q358" s="92"/>
-      <c r="R358" s="78"/>
+      <c r="Q358" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="R358" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="359">
-      <c r="A359" s="67"/>
-      <c r="B359" s="68"/>
-      <c r="C359" s="69"/>
-      <c r="D359" s="70"/>
-      <c r="E359" s="71"/>
-      <c r="F359" s="71"/>
+      <c r="A359" s="67">
+        <v>1993.0</v>
+      </c>
+      <c r="B359" s="68">
+        <v>1.0</v>
+      </c>
+      <c r="C359" s="69">
+        <v>4.0</v>
+      </c>
+      <c r="D359" s="71" t="s">
+        <v>365</v>
+      </c>
+      <c r="E359" s="71" t="s">
+        <v>757</v>
+      </c>
+      <c r="F359" s="71" t="s">
+        <v>537</v>
+      </c>
       <c r="G359" s="71"/>
       <c r="H359" s="70"/>
       <c r="I359" s="71"/>
-      <c r="J359" s="67"/>
-      <c r="K359" s="67"/>
+      <c r="J359" s="67" t="s">
+        <v>758</v>
+      </c>
+      <c r="K359" s="67" t="s">
+        <v>759</v>
+      </c>
       <c r="L359" s="72"/>
       <c r="M359" s="72"/>
       <c r="N359" s="72"/>
       <c r="O359" s="73"/>
       <c r="P359" s="73"/>
-      <c r="Q359" s="75"/>
-      <c r="R359" s="78"/>
+      <c r="Q359" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="R359" s="48" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="360">
-      <c r="A360" s="39"/>
-      <c r="B360" s="40"/>
-      <c r="C360" s="41"/>
+      <c r="A360" s="39">
+        <v>2023.0</v>
+      </c>
+      <c r="B360" s="40">
+        <v>7.0</v>
+      </c>
+      <c r="C360" s="41">
+        <v>16.0</v>
+      </c>
       <c r="D360" s="43"/>
       <c r="E360" s="42"/>
       <c r="F360" s="42"/>
       <c r="G360" s="42"/>
       <c r="H360" s="43"/>
       <c r="I360" s="42"/>
-      <c r="J360" s="66"/>
+      <c r="J360" s="39" t="s">
+        <v>760</v>
+      </c>
       <c r="K360" s="66"/>
       <c r="L360" s="66"/>
       <c r="M360" s="66"/>
       <c r="N360" s="66"/>
       <c r="O360" s="57"/>
       <c r="P360" s="57"/>
-      <c r="Q360" s="92"/>
-      <c r="R360" s="78"/>
+      <c r="Q360" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="R360" s="48" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="361">
-      <c r="A361" s="67"/>
-      <c r="B361" s="68"/>
-      <c r="C361" s="69"/>
+      <c r="A361" s="67">
+        <v>2015.0</v>
+      </c>
+      <c r="B361" s="68">
+        <v>7.0</v>
+      </c>
+      <c r="C361" s="69">
+        <v>1.0</v>
+      </c>
       <c r="D361" s="70"/>
-      <c r="E361" s="71"/>
-      <c r="F361" s="71"/>
+      <c r="E361" s="71" t="s">
+        <v>761</v>
+      </c>
+      <c r="F361" s="71" t="s">
+        <v>538</v>
+      </c>
       <c r="G361" s="71"/>
       <c r="H361" s="70"/>
       <c r="I361" s="71"/>
-      <c r="J361" s="72"/>
+      <c r="J361" s="67" t="s">
+        <v>762</v>
+      </c>
       <c r="K361" s="72"/>
       <c r="L361" s="72"/>
       <c r="M361" s="72"/>
       <c r="N361" s="72"/>
       <c r="O361" s="73"/>
       <c r="P361" s="73"/>
-      <c r="Q361" s="75"/>
+      <c r="Q361" s="74" t="s">
+        <v>747</v>
+      </c>
       <c r="R361" s="78"/>
     </row>
     <row r="362">
-      <c r="A362" s="39"/>
+      <c r="A362" s="39">
+        <v>1985.0</v>
+      </c>
       <c r="B362" s="40"/>
       <c r="C362" s="41"/>
       <c r="D362" s="43"/>
@@ -14656,18 +14910,24 @@
       <c r="G362" s="42"/>
       <c r="H362" s="43"/>
       <c r="I362" s="42"/>
-      <c r="J362" s="66"/>
+      <c r="J362" s="39" t="s">
+        <v>763</v>
+      </c>
       <c r="K362" s="66"/>
       <c r="L362" s="66"/>
       <c r="M362" s="66"/>
       <c r="N362" s="66"/>
       <c r="O362" s="57"/>
       <c r="P362" s="57"/>
-      <c r="Q362" s="92"/>
+      <c r="Q362" s="77" t="s">
+        <v>22</v>
+      </c>
       <c r="R362" s="78"/>
     </row>
     <row r="363">
-      <c r="A363" s="67"/>
+      <c r="A363" s="67">
+        <v>1997.0</v>
+      </c>
       <c r="B363" s="68"/>
       <c r="C363" s="69"/>
       <c r="D363" s="70"/>
@@ -14676,18 +14936,26 @@
       <c r="G363" s="71"/>
       <c r="H363" s="70"/>
       <c r="I363" s="71"/>
-      <c r="J363" s="72"/>
-      <c r="K363" s="72"/>
+      <c r="J363" s="67" t="s">
+        <v>764</v>
+      </c>
+      <c r="K363" s="67" t="s">
+        <v>765</v>
+      </c>
       <c r="L363" s="72"/>
       <c r="M363" s="72"/>
       <c r="N363" s="72"/>
       <c r="O363" s="73"/>
       <c r="P363" s="73"/>
-      <c r="Q363" s="75"/>
+      <c r="Q363" s="74" t="s">
+        <v>58</v>
+      </c>
       <c r="R363" s="78"/>
     </row>
     <row r="364">
-      <c r="A364" s="39"/>
+      <c r="A364" s="39">
+        <v>1968.0</v>
+      </c>
       <c r="B364" s="40"/>
       <c r="C364" s="41"/>
       <c r="D364" s="43"/>
@@ -14696,15 +14964,23 @@
       <c r="G364" s="42"/>
       <c r="H364" s="43"/>
       <c r="I364" s="42"/>
-      <c r="J364" s="66"/>
-      <c r="K364" s="66"/>
+      <c r="J364" s="39" t="s">
+        <v>766</v>
+      </c>
+      <c r="K364" s="39" t="s">
+        <v>767</v>
+      </c>
       <c r="L364" s="66"/>
       <c r="M364" s="66"/>
       <c r="N364" s="66"/>
       <c r="O364" s="57"/>
       <c r="P364" s="57"/>
-      <c r="Q364" s="92"/>
-      <c r="R364" s="78"/>
+      <c r="Q364" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="R364" s="48" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="67"/>
